--- a/Files/Salas/Salas.xlsx
+++ b/Files/Salas/Salas.xlsx
@@ -1,29 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\GitHub\UFMG\.github\Files\Salas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\GitHub\UFMG\MiscDocs_PPGCC\Files\Salas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9291D7FE-E23B-4F3C-AF0C-23B2AA706304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CE5FA4-E6F9-47D1-A6BB-5605A39F9189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="947" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="947" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tudo" sheetId="10" r:id="rId1"/>
-    <sheet name="Laboratórios de Pesquisa" sheetId="1" r:id="rId2"/>
-    <sheet name="Laboratórios de Extensão" sheetId="2" r:id="rId3"/>
-    <sheet name="Professores" sheetId="3" r:id="rId4"/>
-    <sheet name="Funcionários ADM-CRC" sheetId="4" r:id="rId5"/>
-    <sheet name="DCC" sheetId="5" r:id="rId6"/>
-    <sheet name="ICEx" sheetId="6" r:id="rId7"/>
-    <sheet name="Departamentos do ICEx" sheetId="7" r:id="rId8"/>
-    <sheet name="Professor Subst. - Visitante" sheetId="8" r:id="rId9"/>
-    <sheet name="Professores Eméritos - Voluntár" sheetId="9" r:id="rId10"/>
+    <sheet name="Planilha1" sheetId="11" r:id="rId2"/>
+    <sheet name="Laboratórios de Pesquisa" sheetId="1" r:id="rId3"/>
+    <sheet name="Laboratórios de Extensão" sheetId="2" r:id="rId4"/>
+    <sheet name="Professores" sheetId="3" r:id="rId5"/>
+    <sheet name="Funcionários ADM-CRC" sheetId="4" r:id="rId6"/>
+    <sheet name="DCC" sheetId="5" r:id="rId7"/>
+    <sheet name="ICEx" sheetId="6" r:id="rId8"/>
+    <sheet name="Departamentos do ICEx" sheetId="7" r:id="rId9"/>
+    <sheet name="Professor Subst. - Visitante" sheetId="8" r:id="rId10"/>
+    <sheet name="Professores Eméritos - Voluntár" sheetId="9" r:id="rId11"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Planilha1!$A$1:$F$82</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +43,7 @@
     <author>João Vítor Fernandes Dias</author>
   </authors>
   <commentList>
-    <comment ref="F51" authorId="0" shapeId="0" xr:uid="{688DCF50-965C-4F14-A188-8FDDBA710D0A}">
+    <comment ref="F150" authorId="0" shapeId="0" xr:uid="{688DCF50-965C-4F14-A188-8FDDBA710D0A}">
       <text>
         <r>
           <rPr>
@@ -58,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="310">
   <si>
     <t>Nome do Laboratório</t>
   </si>
@@ -994,7 +998,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1009,16 +1013,36 @@
       <name val="Segoe UI"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1026,11 +1050,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1045,6 +1093,25 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1183,7 +1250,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{610E0157-FE5B-482B-9B76-D633A1DA04A9}" name="Tabela28" displayName="Tabela28" ref="A1:G212" totalsRowShown="0" headerRowDxfId="37">
   <autoFilter ref="A1:G212" xr:uid="{610E0157-FE5B-482B-9B76-D633A1DA04A9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G212">
-    <sortCondition ref="B1:B212"/>
+    <sortCondition descending="1" ref="D1:D212"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="7" xr3:uid="{A34B8385-0A96-475C-9478-ABF0D5B62998}" name="Prédio" dataDxfId="36"/>
@@ -1575,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C614248-534F-429C-9A98-D1F081278944}">
   <dimension ref="A1:K213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="E193" sqref="E193"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -1618,1563 +1685,1211 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="5">
-        <v>108</v>
-      </c>
-      <c r="C2" s="5">
-        <v>5733</v>
-      </c>
+        <v>4327</v>
+      </c>
+      <c r="C2" s="5"/>
       <c r="D2" t="s">
-        <v>229</v>
-      </c>
-      <c r="F2" t="s">
-        <v>106</v>
+        <v>230</v>
+      </c>
+      <c r="G2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5">
-        <v>1002</v>
-      </c>
-      <c r="C3" s="5">
-        <v>5801</v>
-      </c>
+        <v>4327</v>
+      </c>
+      <c r="C3" s="5"/>
       <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>113</v>
+        <v>230</v>
+      </c>
+      <c r="G3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5">
-        <v>1003</v>
-      </c>
-      <c r="C4" s="5">
-        <v>5811</v>
-      </c>
+        <v>7327</v>
+      </c>
+      <c r="C4" s="5"/>
       <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="G4" t="s">
-        <v>238</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5">
-        <v>1034</v>
-      </c>
-      <c r="C5" s="5">
-        <v>5593</v>
-      </c>
+        <v>4327</v>
+      </c>
+      <c r="C5" s="5"/>
       <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>123</v>
+        <v>230</v>
+      </c>
+      <c r="G5" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5">
-        <v>1047</v>
-      </c>
-      <c r="C6" s="5">
-        <v>5823</v>
-      </c>
+        <v>4327</v>
+      </c>
+      <c r="C6" s="5"/>
       <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>131</v>
+        <v>230</v>
+      </c>
+      <c r="G6" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5">
-        <v>1048</v>
-      </c>
-      <c r="C7" s="5">
-        <v>5823</v>
-      </c>
+        <v>4327</v>
+      </c>
+      <c r="C7" s="5"/>
       <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>131</v>
+        <v>230</v>
+      </c>
+      <c r="G7" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
-        <v>2003</v>
+        <v>7306</v>
       </c>
       <c r="C8" s="5">
-        <v>5818</v>
+        <v>5868</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>116</v>
+        <v>231</v>
+      </c>
+      <c r="G8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
-      <c r="B9" s="5">
-        <v>2004</v>
-      </c>
-      <c r="C9" s="5">
-        <v>5812</v>
-      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
       <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s">
-        <v>129</v>
+        <v>231</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
-        <v>2005</v>
+        <v>7324</v>
       </c>
       <c r="C10" s="5">
-        <v>7547</v>
+        <v>5875</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G10" t="s">
-        <v>234</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
-        <v>2005</v>
+        <v>7326</v>
       </c>
       <c r="C11" s="5">
-        <v>5380</v>
+        <v>5879</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="G11" t="s">
-        <v>236</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
-        <v>2005</v>
+        <v>7325</v>
       </c>
       <c r="C12" s="5">
-        <v>5806</v>
+        <v>5885</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="G12" t="s">
-        <v>237</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="A13" s="5"/>
       <c r="B13" s="5">
-        <v>2011</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>75</v>
+        <v>4319</v>
+      </c>
+      <c r="C13" s="5">
+        <v>5899</v>
       </c>
       <c r="D13" t="s">
-        <v>226</v>
-      </c>
-      <c r="E13" t="s">
-        <v>136</v>
-      </c>
-      <c r="F13" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="A14" s="5"/>
       <c r="B14" s="5">
-        <v>2012</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>75</v>
+        <v>4318</v>
+      </c>
+      <c r="C14" s="5">
+        <v>5897</v>
       </c>
       <c r="D14" t="s">
-        <v>226</v>
-      </c>
-      <c r="E14" t="s">
-        <v>289</v>
-      </c>
-      <c r="F14" t="s">
-        <v>285</v>
+        <v>231</v>
       </c>
       <c r="G14" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="A15" s="5"/>
       <c r="B15" s="5">
-        <v>2017</v>
+        <v>6332</v>
       </c>
       <c r="C15" s="5">
-        <v>5859</v>
+        <v>5890</v>
       </c>
       <c r="D15" t="s">
-        <v>226</v>
-      </c>
-      <c r="E15" t="s">
-        <v>136</v>
-      </c>
-      <c r="F15" t="s">
-        <v>286</v>
+        <v>231</v>
       </c>
       <c r="G15" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5">
-        <v>2017</v>
+        <v>7314</v>
       </c>
       <c r="C16" s="5">
-        <v>5859</v>
+        <v>5891</v>
       </c>
       <c r="D16" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G16" t="s">
-        <v>143</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
-      <c r="B17" s="5">
-        <v>2017</v>
-      </c>
-      <c r="C17" s="5">
-        <v>5859</v>
-      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
       <c r="D17" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G17" t="s">
-        <v>164</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5">
-        <v>2017</v>
+        <v>7312</v>
       </c>
       <c r="C18" s="5">
-        <v>5859</v>
+        <v>5893</v>
       </c>
       <c r="D18" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G18" t="s">
-        <v>167</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
-      <c r="B19" s="5">
-        <v>2017</v>
-      </c>
-      <c r="C19" s="5">
-        <v>5859</v>
-      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
       <c r="D19" t="s">
-        <v>133</v>
-      </c>
-      <c r="F19" t="s">
-        <v>136</v>
+        <v>231</v>
+      </c>
+      <c r="G19" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="A20" s="5"/>
       <c r="B20" s="5">
-        <v>2018</v>
+        <v>7307</v>
       </c>
       <c r="C20" s="5">
-        <v>5859</v>
+        <v>5880</v>
       </c>
       <c r="D20" t="s">
-        <v>226</v>
-      </c>
-      <c r="E20" t="s">
-        <v>136</v>
-      </c>
-      <c r="F20" t="s">
-        <v>286</v>
+        <v>231</v>
       </c>
       <c r="G20" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="5">
-        <v>2019</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>75</v>
-      </c>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
       <c r="D21" t="s">
-        <v>226</v>
-      </c>
-      <c r="E21" t="s">
-        <v>136</v>
-      </c>
-      <c r="F21" t="s">
-        <v>291</v>
+        <v>231</v>
       </c>
       <c r="G21" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="A22" s="5"/>
       <c r="B22" s="5">
-        <v>2020</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>75</v>
+        <v>7310</v>
+      </c>
+      <c r="C22" s="5">
+        <v>5887</v>
       </c>
       <c r="D22" t="s">
-        <v>226</v>
-      </c>
-      <c r="E22" t="s">
-        <v>136</v>
-      </c>
-      <c r="F22" t="s">
-        <v>291</v>
+        <v>231</v>
       </c>
       <c r="G22" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="A23" s="5"/>
       <c r="B23" s="5">
-        <v>2021</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>75</v>
+        <v>7316</v>
+      </c>
+      <c r="C23" s="5">
+        <v>5579</v>
       </c>
       <c r="D23" t="s">
-        <v>226</v>
-      </c>
-      <c r="E23" t="s">
-        <v>136</v>
-      </c>
-      <c r="F23" t="s">
-        <v>292</v>
+        <v>227</v>
       </c>
       <c r="G23" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="A24" s="5"/>
       <c r="B24" s="5">
-        <v>2022</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>75</v>
+        <v>6326</v>
+      </c>
+      <c r="C24" s="5">
+        <v>7538</v>
       </c>
       <c r="D24" t="s">
-        <v>226</v>
-      </c>
-      <c r="E24" t="s">
-        <v>136</v>
-      </c>
-      <c r="F24" t="s">
-        <v>293</v>
+        <v>227</v>
       </c>
       <c r="G24" t="s">
-        <v>67</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="A25" s="5"/>
       <c r="B25" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>75</v>
+        <v>4335</v>
+      </c>
+      <c r="C25" s="5">
+        <v>7586</v>
       </c>
       <c r="D25" t="s">
-        <v>226</v>
-      </c>
-      <c r="E25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F25" t="s">
-        <v>284</v>
+        <v>227</v>
       </c>
       <c r="G25" t="s">
-        <v>67</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="5">
-        <v>2040</v>
+        <v>7330</v>
       </c>
       <c r="C26" s="5">
-        <v>5393</v>
+        <v>5882</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" t="s">
-        <v>125</v>
+        <v>227</v>
+      </c>
+      <c r="G26" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="A27" s="5"/>
       <c r="B27" s="5">
-        <v>2301</v>
+        <v>6319</v>
       </c>
       <c r="C27" s="5">
-        <v>5842</v>
+        <v>7535</v>
       </c>
       <c r="D27" t="s">
-        <v>225</v>
-      </c>
-      <c r="E27" t="s">
-        <v>242</v>
-      </c>
-      <c r="F27" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="G27" t="s">
-        <v>59</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="A28" s="5"/>
       <c r="B28" s="5">
-        <v>2302</v>
+        <v>4334</v>
       </c>
       <c r="C28" s="5">
-        <v>1478</v>
+        <v>5835</v>
       </c>
       <c r="D28" t="s">
-        <v>225</v>
-      </c>
-      <c r="E28" t="s">
-        <v>243</v>
-      </c>
-      <c r="F28" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="G28" t="s">
-        <v>6</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="A29" s="5"/>
       <c r="B29" s="5">
-        <v>2303</v>
+        <v>7315</v>
       </c>
       <c r="C29" s="5">
-        <v>5843</v>
+        <v>5888</v>
       </c>
       <c r="D29" t="s">
-        <v>225</v>
-      </c>
-      <c r="E29" t="s">
-        <v>243</v>
-      </c>
-      <c r="F29" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="G29" t="s">
-        <v>6</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="A30" s="5"/>
       <c r="B30" s="5">
-        <v>2309</v>
+        <v>7331</v>
       </c>
       <c r="C30" s="5">
-        <v>5839</v>
+        <v>5589</v>
       </c>
       <c r="D30" t="s">
-        <v>225</v>
-      </c>
-      <c r="E30" t="s">
-        <v>244</v>
-      </c>
-      <c r="F30" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
       <c r="G30" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="A31" s="5"/>
       <c r="B31" s="5">
-        <v>2310</v>
+        <v>4321</v>
       </c>
       <c r="C31" s="5">
-        <v>1477</v>
+        <v>7542</v>
       </c>
       <c r="D31" t="s">
-        <v>225</v>
-      </c>
-      <c r="E31" t="s">
-        <v>245</v>
-      </c>
-      <c r="F31" t="s">
-        <v>268</v>
+        <v>227</v>
       </c>
       <c r="G31" t="s">
-        <v>44</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="A32" s="5"/>
       <c r="B32" s="5">
-        <v>2311</v>
+        <v>6329</v>
       </c>
       <c r="C32" s="5">
-        <v>1476</v>
+        <v>7534</v>
       </c>
       <c r="D32" t="s">
-        <v>225</v>
-      </c>
-      <c r="E32" t="s">
-        <v>245</v>
-      </c>
-      <c r="F32" t="s">
-        <v>268</v>
+        <v>227</v>
       </c>
       <c r="G32" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="A33" s="5"/>
       <c r="B33" s="5">
-        <v>2312</v>
+        <v>4320</v>
       </c>
       <c r="C33" s="5">
-        <v>1475</v>
+        <v>1482</v>
       </c>
       <c r="D33" t="s">
-        <v>225</v>
-      </c>
-      <c r="E33" t="s">
-        <v>246</v>
-      </c>
-      <c r="F33" t="s">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="G33" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="A34" s="5"/>
       <c r="B34" s="5">
-        <v>2313</v>
+        <v>6315</v>
       </c>
       <c r="C34" s="5">
-        <v>1474</v>
+        <v>7584</v>
       </c>
       <c r="D34" t="s">
-        <v>225</v>
-      </c>
-      <c r="E34" t="s">
-        <v>246</v>
-      </c>
-      <c r="F34" t="s">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="A35" s="5"/>
       <c r="B35" s="5">
-        <v>2314</v>
+        <v>7311</v>
       </c>
       <c r="C35" s="5">
-        <v>1473</v>
+        <v>7537</v>
       </c>
       <c r="D35" t="s">
-        <v>225</v>
-      </c>
-      <c r="E35" t="s">
-        <v>247</v>
-      </c>
-      <c r="F35" t="s">
-        <v>53</v>
+        <v>227</v>
       </c>
       <c r="G35" t="s">
-        <v>14</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="A36" s="5"/>
       <c r="B36" s="5">
-        <v>2315</v>
+        <v>4314</v>
       </c>
       <c r="C36" s="5">
-        <v>5856</v>
+        <v>6579</v>
       </c>
       <c r="D36" t="s">
-        <v>225</v>
-      </c>
-      <c r="E36" t="s">
-        <v>247</v>
-      </c>
-      <c r="F36" t="s">
-        <v>270</v>
+        <v>227</v>
       </c>
       <c r="G36" t="s">
-        <v>16</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="5">
-        <v>2315</v>
+        <v>4311</v>
       </c>
       <c r="C37" s="5">
-        <v>5856</v>
+        <v>5878</v>
       </c>
       <c r="D37" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G37" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="A38" s="5"/>
       <c r="B38" s="5">
-        <v>2321</v>
+        <v>6318</v>
       </c>
       <c r="C38" s="5">
-        <v>5590</v>
+        <v>7597</v>
       </c>
       <c r="D38" t="s">
-        <v>225</v>
-      </c>
-      <c r="E38" t="s">
-        <v>244</v>
-      </c>
-      <c r="F38" t="s">
-        <v>271</v>
+        <v>227</v>
       </c>
       <c r="G38" t="s">
-        <v>10</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="A39" s="5"/>
       <c r="B39" s="5">
-        <v>3001</v>
+        <v>7317</v>
       </c>
       <c r="C39" s="5">
-        <v>5570</v>
+        <v>7598</v>
       </c>
       <c r="D39" t="s">
-        <v>226</v>
-      </c>
-      <c r="E39" t="s">
-        <v>264</v>
-      </c>
-      <c r="F39" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="G39" t="s">
-        <v>76</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="A40" s="5"/>
       <c r="B40" s="5">
-        <v>3001</v>
+        <v>4329</v>
       </c>
       <c r="C40" s="5">
-        <v>5570</v>
+        <v>1488</v>
       </c>
       <c r="D40" t="s">
-        <v>226</v>
-      </c>
-      <c r="E40" t="s">
-        <v>264</v>
-      </c>
-      <c r="F40" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="G40" t="s">
-        <v>76</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="5">
-        <v>3001</v>
+        <v>7322</v>
       </c>
       <c r="C41" s="5">
-        <v>5583</v>
+        <v>5587</v>
       </c>
       <c r="D41" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G41" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5">
-        <v>3001</v>
+        <v>4330</v>
       </c>
       <c r="C42" s="5">
-        <v>5829</v>
+        <v>1485</v>
       </c>
       <c r="D42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G42" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="5">
-        <v>3001</v>
+        <v>7327</v>
       </c>
       <c r="C43" s="5">
-        <v>5829</v>
+        <v>5884</v>
       </c>
       <c r="D43" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G43" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="5">
-        <v>3001</v>
+        <v>6322</v>
       </c>
       <c r="C44" s="5">
-        <v>5578</v>
+        <v>5849</v>
       </c>
       <c r="D44" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G44" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="5">
-        <v>3001</v>
+        <v>4337</v>
       </c>
       <c r="C45" s="5">
-        <v>5383</v>
+        <v>1483</v>
       </c>
       <c r="D45" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G45" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="5">
-        <v>3001</v>
+        <v>6308</v>
       </c>
       <c r="C46" s="5">
-        <v>5577</v>
+        <v>7533</v>
       </c>
       <c r="D46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G46" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="5">
-        <v>3001</v>
+        <v>6333</v>
       </c>
       <c r="C47" s="5">
-        <v>5570</v>
+        <v>5872</v>
       </c>
       <c r="D47" t="s">
-        <v>133</v>
-      </c>
-      <c r="F47" t="s">
-        <v>135</v>
+        <v>227</v>
+      </c>
+      <c r="G47" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="5">
-        <v>3002</v>
+        <v>6327</v>
       </c>
       <c r="C48" s="5">
-        <v>5817</v>
+        <v>7536</v>
       </c>
       <c r="D48" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G48" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="5">
-        <v>3002</v>
+        <v>4312</v>
       </c>
       <c r="C49" s="5">
-        <v>5817</v>
+        <v>5876</v>
       </c>
       <c r="D49" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G49" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="A50" s="5"/>
       <c r="B50" s="5">
-        <v>3003</v>
+        <v>4323</v>
       </c>
       <c r="C50" s="5">
-        <v>5765</v>
+        <v>5852</v>
       </c>
       <c r="D50" t="s">
-        <v>225</v>
-      </c>
-      <c r="E50" t="s">
-        <v>263</v>
-      </c>
-      <c r="F50" t="s">
-        <v>17</v>
+        <v>227</v>
       </c>
       <c r="G50" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="A51" s="5"/>
       <c r="B51" s="5">
-        <v>3004</v>
-      </c>
-      <c r="C51" s="5"/>
+        <v>6330</v>
+      </c>
+      <c r="C51" s="5">
+        <v>7588</v>
+      </c>
       <c r="D51" t="s">
-        <v>19</v>
-      </c>
-      <c r="F51" t="s">
-        <v>294</v>
+        <v>227</v>
+      </c>
+      <c r="G51" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="A52" s="5"/>
       <c r="B52" s="5">
-        <v>3005</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>75</v>
+        <v>6324</v>
+      </c>
+      <c r="C52" s="5">
+        <v>7590</v>
       </c>
       <c r="D52" t="s">
-        <v>225</v>
-      </c>
-      <c r="E52" t="s">
-        <v>288</v>
-      </c>
-      <c r="F52" t="s">
-        <v>48</v>
+        <v>227</v>
       </c>
       <c r="G52" t="s">
-        <v>20</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="A53" s="5"/>
       <c r="B53" s="5">
-        <v>3006</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>75</v>
+        <v>4336</v>
+      </c>
+      <c r="C53" s="5">
+        <v>1469</v>
       </c>
       <c r="D53" t="s">
-        <v>226</v>
-      </c>
-      <c r="F53" t="s">
-        <v>70</v>
+        <v>227</v>
       </c>
       <c r="G53" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="A54" s="5"/>
       <c r="B54" s="5">
-        <v>3007</v>
+        <v>6317</v>
       </c>
       <c r="C54" s="5">
-        <v>5571</v>
+        <v>5836</v>
       </c>
       <c r="D54" t="s">
-        <v>226</v>
-      </c>
-      <c r="F54" t="s">
-        <v>287</v>
+        <v>227</v>
       </c>
       <c r="G54" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="5">
-        <v>3007</v>
+        <v>4331</v>
       </c>
       <c r="C55" s="5">
-        <v>5571</v>
+        <v>1489</v>
       </c>
       <c r="D55" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G55" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="A56" s="5"/>
       <c r="B56" s="5">
-        <v>3011</v>
+        <v>7309</v>
       </c>
       <c r="C56" s="5">
-        <v>5575</v>
+        <v>5898</v>
       </c>
       <c r="D56" t="s">
-        <v>225</v>
-      </c>
-      <c r="E56" t="s">
-        <v>248</v>
-      </c>
-      <c r="F56" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="G56" t="s">
-        <v>26</v>
+        <v>199</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="A57" s="5"/>
       <c r="B57" s="5">
-        <v>3011</v>
+        <v>6312</v>
       </c>
       <c r="C57" s="5">
-        <v>5588</v>
+        <v>7587</v>
       </c>
       <c r="D57" t="s">
-        <v>226</v>
-      </c>
-      <c r="E57" t="s">
-        <v>262</v>
-      </c>
-      <c r="F57" t="s">
-        <v>84</v>
+        <v>227</v>
       </c>
       <c r="G57" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="A58" s="5"/>
       <c r="B58" s="5">
-        <v>3012</v>
+        <v>6309</v>
       </c>
       <c r="C58" s="5">
-        <v>5866</v>
+        <v>5864</v>
       </c>
       <c r="D58" t="s">
-        <v>226</v>
-      </c>
-      <c r="E58" t="s">
-        <v>262</v>
-      </c>
-      <c r="F58" t="s">
-        <v>84</v>
+        <v>227</v>
       </c>
       <c r="G58" t="s">
-        <v>26</v>
+        <v>201</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="A59" s="5"/>
       <c r="B59" s="5">
-        <v>3013</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>75</v>
+        <v>4310</v>
+      </c>
+      <c r="C59" s="5">
+        <v>7589</v>
       </c>
       <c r="D59" t="s">
-        <v>226</v>
-      </c>
-      <c r="E59" t="s">
-        <v>262</v>
-      </c>
-      <c r="F59" t="s">
-        <v>84</v>
+        <v>227</v>
       </c>
       <c r="G59" t="s">
-        <v>26</v>
+        <v>202</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="A60" s="5"/>
       <c r="B60" s="5">
-        <v>3014</v>
+        <v>6328</v>
       </c>
       <c r="C60" s="5">
-        <v>5569</v>
+        <v>5883</v>
       </c>
       <c r="D60" t="s">
-        <v>226</v>
-      </c>
-      <c r="E60" t="s">
-        <v>262</v>
-      </c>
-      <c r="F60" t="s">
-        <v>84</v>
+        <v>227</v>
       </c>
       <c r="G60" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="A61" s="5"/>
       <c r="B61" s="5">
-        <v>3014</v>
+        <v>6323</v>
       </c>
       <c r="C61" s="5">
-        <v>5565</v>
+        <v>5870</v>
       </c>
       <c r="D61" t="s">
-        <v>226</v>
-      </c>
-      <c r="E61" t="s">
-        <v>262</v>
-      </c>
-      <c r="F61" t="s">
-        <v>84</v>
+        <v>227</v>
       </c>
       <c r="G61" t="s">
-        <v>26</v>
+        <v>203</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="A62" s="5"/>
       <c r="B62" s="5">
-        <v>3015</v>
+        <v>4322</v>
       </c>
       <c r="C62" s="5">
-        <v>5572</v>
+        <v>5869</v>
       </c>
       <c r="D62" t="s">
-        <v>226</v>
-      </c>
-      <c r="E62" t="s">
-        <v>262</v>
-      </c>
-      <c r="F62" t="s">
-        <v>84</v>
+        <v>227</v>
       </c>
       <c r="G62" t="s">
-        <v>26</v>
+        <v>204</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="A63" s="5"/>
       <c r="B63" s="5">
-        <v>3015</v>
+        <v>6310</v>
       </c>
       <c r="C63" s="5">
-        <v>5837</v>
+        <v>5586</v>
       </c>
       <c r="D63" t="s">
-        <v>226</v>
-      </c>
-      <c r="E63" t="s">
-        <v>262</v>
-      </c>
-      <c r="F63" t="s">
-        <v>84</v>
+        <v>227</v>
       </c>
       <c r="G63" t="s">
-        <v>26</v>
+        <v>205</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
       <c r="B64" s="5">
-        <v>3117</v>
+        <v>6313</v>
       </c>
       <c r="C64" s="5">
-        <v>5805</v>
+        <v>7541</v>
       </c>
       <c r="D64" t="s">
-        <v>19</v>
-      </c>
-      <c r="F64" t="s">
-        <v>121</v>
+        <v>227</v>
+      </c>
+      <c r="G64" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
       <c r="B65" s="5">
-        <v>3118</v>
+        <v>7313</v>
       </c>
       <c r="C65" s="5">
-        <v>5822</v>
+        <v>5871</v>
       </c>
       <c r="D65" t="s">
-        <v>19</v>
-      </c>
-      <c r="F65" t="s">
-        <v>122</v>
+        <v>227</v>
+      </c>
+      <c r="G65" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
       <c r="B66" s="5">
-        <v>3119</v>
+        <v>6325</v>
       </c>
       <c r="C66" s="5">
-        <v>5807</v>
+        <v>7599</v>
       </c>
       <c r="D66" t="s">
-        <v>19</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
+        <v>227</v>
+      </c>
+      <c r="G66" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
       <c r="B67" s="5">
-        <v>3124</v>
+        <v>4317</v>
       </c>
       <c r="C67" s="5">
-        <v>5564</v>
+        <v>5845</v>
       </c>
       <c r="D67" t="s">
-        <v>19</v>
-      </c>
-      <c r="F67" t="s">
-        <v>130</v>
+        <v>227</v>
+      </c>
+      <c r="G67" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="A68" s="5"/>
       <c r="B68" s="5">
-        <v>3301</v>
+        <v>7323</v>
       </c>
       <c r="C68" s="5">
-        <v>5863</v>
+        <v>5892</v>
       </c>
       <c r="D68" t="s">
-        <v>225</v>
-      </c>
-      <c r="E68" t="s">
-        <v>249</v>
-      </c>
-      <c r="F68" t="s">
-        <v>27</v>
+        <v>227</v>
       </c>
       <c r="G68" t="s">
-        <v>28</v>
+        <v>209</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B69" s="5">
-        <v>3302</v>
+      <c r="A69" s="5"/>
+      <c r="B69" s="5" t="s">
+        <v>223</v>
       </c>
       <c r="C69" s="5">
-        <v>1481</v>
+        <v>5857</v>
       </c>
       <c r="D69" t="s">
-        <v>225</v>
-      </c>
-      <c r="E69" t="s">
-        <v>249</v>
-      </c>
-      <c r="F69" t="s">
-        <v>27</v>
+        <v>227</v>
       </c>
       <c r="G69" t="s">
-        <v>28</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="A70" s="5"/>
       <c r="B70" s="5">
-        <v>3303</v>
-      </c>
-      <c r="C70" s="5"/>
-      <c r="F70" t="s">
-        <v>305</v>
+        <v>6320</v>
+      </c>
+      <c r="C70" s="5">
+        <v>7583</v>
+      </c>
+      <c r="D70" t="s">
+        <v>227</v>
+      </c>
+      <c r="G70" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="A71" s="5"/>
       <c r="B71" s="5">
-        <v>3304</v>
-      </c>
-      <c r="C71" s="5"/>
-      <c r="F71" t="s">
-        <v>306</v>
+        <v>6331</v>
+      </c>
+      <c r="C71" s="5">
+        <v>7539</v>
+      </c>
+      <c r="D71" t="s">
+        <v>227</v>
+      </c>
+      <c r="G71" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="A72" s="5"/>
       <c r="B72" s="5">
-        <v>3305</v>
-      </c>
-      <c r="C72" s="5"/>
-      <c r="F72" t="s">
-        <v>307</v>
+        <v>6314</v>
+      </c>
+      <c r="C72" s="5">
+        <v>5881</v>
+      </c>
+      <c r="D72" t="s">
+        <v>227</v>
+      </c>
+      <c r="G72" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="A73" s="5"/>
       <c r="B73" s="5">
-        <v>3306</v>
-      </c>
-      <c r="C73" s="5"/>
-      <c r="F73" t="s">
-        <v>297</v>
+        <v>7320</v>
+      </c>
+      <c r="C73" s="5">
+        <v>5886</v>
+      </c>
+      <c r="D73" t="s">
+        <v>227</v>
+      </c>
+      <c r="G73" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="A74" s="5"/>
       <c r="B74" s="5">
-        <v>3307</v>
-      </c>
-      <c r="C74" s="5"/>
-      <c r="F74" t="s">
-        <v>308</v>
+        <v>6311</v>
+      </c>
+      <c r="C74" s="5">
+        <v>5895</v>
+      </c>
+      <c r="D74" t="s">
+        <v>227</v>
+      </c>
+      <c r="G74" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="A75" s="5"/>
       <c r="B75" s="5">
-        <v>3308</v>
-      </c>
-      <c r="C75" s="5"/>
-      <c r="F75" t="s">
-        <v>309</v>
+        <v>6307</v>
+      </c>
+      <c r="C75" s="5">
+        <v>5874</v>
+      </c>
+      <c r="D75" t="s">
+        <v>227</v>
+      </c>
+      <c r="G75" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B76" s="5">
-        <v>3309</v>
+      <c r="A76" s="5"/>
+      <c r="B76" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="C76" s="5">
-        <v>1480</v>
+        <v>5858</v>
       </c>
       <c r="D76" t="s">
-        <v>225</v>
-      </c>
-      <c r="E76" t="s">
-        <v>250</v>
-      </c>
-      <c r="F76" t="s">
-        <v>274</v>
+        <v>227</v>
       </c>
       <c r="G76" t="s">
-        <v>30</v>
+        <v>217</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="A77" s="5"/>
       <c r="B77" s="5">
-        <v>3310</v>
+        <v>4316</v>
       </c>
       <c r="C77" s="5">
-        <v>5854</v>
+        <v>6578</v>
       </c>
       <c r="D77" t="s">
-        <v>225</v>
-      </c>
-      <c r="E77" t="s">
-        <v>251</v>
-      </c>
-      <c r="F77" t="s">
-        <v>275</v>
+        <v>227</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>218</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="5"/>
       <c r="B78" s="5">
-        <v>3310</v>
+        <v>6306</v>
       </c>
       <c r="C78" s="5">
-        <v>5854</v>
+        <v>5877</v>
       </c>
       <c r="D78" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G78" t="s">
-        <v>161</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="A79" s="5"/>
       <c r="B79" s="5">
-        <v>3311</v>
+        <v>6316</v>
       </c>
       <c r="C79" s="5">
-        <v>5851</v>
+        <v>5594</v>
       </c>
       <c r="D79" t="s">
-        <v>225</v>
-      </c>
-      <c r="E79" t="s">
-        <v>252</v>
-      </c>
-      <c r="F79" t="s">
-        <v>276</v>
+        <v>227</v>
       </c>
       <c r="G79" t="s">
-        <v>26</v>
+        <v>219</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="A80" s="5"/>
       <c r="B80" s="5">
-        <v>3312</v>
+        <v>4313</v>
       </c>
       <c r="C80" s="5">
-        <v>5833</v>
+        <v>1486</v>
       </c>
       <c r="D80" t="s">
-        <v>225</v>
-      </c>
-      <c r="E80" t="s">
-        <v>253</v>
-      </c>
-      <c r="F80" t="s">
-        <v>277</v>
+        <v>227</v>
       </c>
       <c r="G80" t="s">
-        <v>60</v>
+        <v>220</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="A81" s="5"/>
       <c r="B81" s="5">
-        <v>3313</v>
+        <v>7308</v>
       </c>
       <c r="C81" s="5">
-        <v>1479</v>
+        <v>5867</v>
       </c>
       <c r="D81" t="s">
-        <v>225</v>
-      </c>
-      <c r="E81" t="s">
-        <v>254</v>
-      </c>
-      <c r="F81" t="s">
-        <v>278</v>
+        <v>227</v>
       </c>
       <c r="G81" t="s">
-        <v>61</v>
+        <v>221</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="A82" s="5"/>
       <c r="B82" s="5">
-        <v>3319</v>
+        <v>7329</v>
       </c>
       <c r="C82" s="5">
-        <v>7561</v>
+        <v>5847</v>
       </c>
       <c r="D82" t="s">
-        <v>225</v>
-      </c>
-      <c r="E82" t="s">
-        <v>33</v>
-      </c>
-      <c r="F82" t="s">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="G82" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B83" s="5">
-        <v>3320</v>
-      </c>
-      <c r="C83" s="5">
-        <v>7562</v>
+        <v>3005</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="D83" t="s">
         <v>225</v>
       </c>
       <c r="E83" t="s">
-        <v>33</v>
+        <v>288</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G83" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -3182,22 +2897,22 @@
         <v>5</v>
       </c>
       <c r="B84" s="5">
-        <v>3321</v>
+        <v>3312</v>
       </c>
       <c r="C84" s="5">
-        <v>7563</v>
+        <v>5833</v>
       </c>
       <c r="D84" t="s">
         <v>225</v>
       </c>
       <c r="E84" t="s">
-        <v>33</v>
+        <v>253</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>277</v>
       </c>
       <c r="G84" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -3205,94 +2920,137 @@
         <v>5</v>
       </c>
       <c r="B85" s="5">
-        <v>3322</v>
+        <v>3301</v>
       </c>
       <c r="C85" s="5">
-        <v>7564</v>
+        <v>5863</v>
       </c>
       <c r="D85" t="s">
         <v>225</v>
       </c>
       <c r="E85" t="s">
-        <v>33</v>
+        <v>249</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G85" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="5"/>
+      <c r="A86" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="B86" s="5">
-        <v>4003</v>
+        <v>3302</v>
       </c>
       <c r="C86" s="5">
-        <v>5970</v>
+        <v>1481</v>
       </c>
       <c r="D86" t="s">
-        <v>229</v>
+        <v>225</v>
+      </c>
+      <c r="E86" t="s">
+        <v>249</v>
       </c>
       <c r="F86" t="s">
-        <v>102</v>
+        <v>27</v>
+      </c>
+      <c r="G86" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="5"/>
+      <c r="A87" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="B87" s="5">
-        <v>4054</v>
+        <v>3310</v>
       </c>
       <c r="C87" s="5">
-        <v>5900</v>
+        <v>5854</v>
       </c>
       <c r="D87" t="s">
-        <v>229</v>
+        <v>225</v>
+      </c>
+      <c r="E87" t="s">
+        <v>251</v>
       </c>
       <c r="F87" t="s">
-        <v>104</v>
+        <v>275</v>
+      </c>
+      <c r="G87" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="5"/>
+      <c r="A88" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="B88" s="5">
-        <v>4114</v>
+        <v>3309</v>
       </c>
       <c r="C88" s="5">
-        <v>5620</v>
+        <v>1480</v>
       </c>
       <c r="D88" t="s">
-        <v>229</v>
+        <v>225</v>
+      </c>
+      <c r="E88" t="s">
+        <v>250</v>
       </c>
       <c r="F88" t="s">
-        <v>105</v>
+        <v>274</v>
+      </c>
+      <c r="G88" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" s="5"/>
+      <c r="A89" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="B89" s="5">
-        <v>4222</v>
+        <v>2312</v>
       </c>
       <c r="C89" s="5">
-        <v>5802</v>
+        <v>1475</v>
       </c>
       <c r="D89" t="s">
-        <v>19</v>
+        <v>225</v>
+      </c>
+      <c r="E89" t="s">
+        <v>246</v>
       </c>
       <c r="F89" t="s">
-        <v>115</v>
+        <v>269</v>
+      </c>
+      <c r="G89" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B90" s="5">
-        <v>4301</v>
-      </c>
-      <c r="C90" s="5"/>
+        <v>3011</v>
+      </c>
+      <c r="C90" s="5">
+        <v>5575</v>
+      </c>
+      <c r="D90" t="s">
+        <v>225</v>
+      </c>
+      <c r="E90" t="s">
+        <v>248</v>
+      </c>
       <c r="F90" t="s">
-        <v>300</v>
+        <v>273</v>
+      </c>
+      <c r="G90" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -3300,22 +3058,22 @@
         <v>5</v>
       </c>
       <c r="B91" s="5">
-        <v>4302</v>
+        <v>3311</v>
       </c>
       <c r="C91" s="5">
-        <v>5575</v>
+        <v>5851</v>
       </c>
       <c r="D91" t="s">
         <v>225</v>
       </c>
       <c r="E91" t="s">
-        <v>301</v>
+        <v>252</v>
       </c>
       <c r="F91" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="G91" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -3323,22 +3081,22 @@
         <v>5</v>
       </c>
       <c r="B92" s="5">
-        <v>4303</v>
+        <v>4341</v>
       </c>
       <c r="C92" s="5">
-        <v>1495</v>
+        <v>5850</v>
       </c>
       <c r="D92" t="s">
         <v>225</v>
       </c>
       <c r="E92" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
       <c r="F92" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="G92" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -3355,10 +3113,10 @@
         <v>225</v>
       </c>
       <c r="E93" t="s">
-        <v>255</v>
+        <v>303</v>
       </c>
       <c r="F93" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="G93" t="s">
         <v>51</v>
@@ -3369,22 +3127,22 @@
         <v>5</v>
       </c>
       <c r="B94" s="5">
-        <v>4304</v>
+        <v>4303</v>
       </c>
       <c r="C94" s="5">
-        <v>5848</v>
+        <v>1495</v>
       </c>
       <c r="D94" t="s">
         <v>225</v>
       </c>
       <c r="E94" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F94" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G94" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -3392,11 +3150,22 @@
         <v>5</v>
       </c>
       <c r="B95" s="5">
-        <v>4305</v>
-      </c>
-      <c r="C95" s="5"/>
+        <v>2302</v>
+      </c>
+      <c r="C95" s="5">
+        <v>1478</v>
+      </c>
+      <c r="D95" t="s">
+        <v>225</v>
+      </c>
+      <c r="E95" t="s">
+        <v>243</v>
+      </c>
       <c r="F95" t="s">
-        <v>295</v>
+        <v>266</v>
+      </c>
+      <c r="G95" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -3404,11 +3173,22 @@
         <v>5</v>
       </c>
       <c r="B96" s="5">
-        <v>4306</v>
-      </c>
-      <c r="C96" s="5"/>
+        <v>2303</v>
+      </c>
+      <c r="C96" s="5">
+        <v>5843</v>
+      </c>
+      <c r="D96" t="s">
+        <v>225</v>
+      </c>
+      <c r="E96" t="s">
+        <v>243</v>
+      </c>
       <c r="F96" t="s">
-        <v>296</v>
+        <v>266</v>
+      </c>
+      <c r="G96" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -3416,11 +3196,22 @@
         <v>5</v>
       </c>
       <c r="B97" s="5">
-        <v>4307</v>
-      </c>
-      <c r="C97" s="5"/>
+        <v>3313</v>
+      </c>
+      <c r="C97" s="5">
+        <v>1479</v>
+      </c>
+      <c r="D97" t="s">
+        <v>225</v>
+      </c>
+      <c r="E97" t="s">
+        <v>254</v>
+      </c>
       <c r="F97" t="s">
-        <v>297</v>
+        <v>278</v>
+      </c>
+      <c r="G97" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -3428,11 +3219,22 @@
         <v>5</v>
       </c>
       <c r="B98" s="5">
-        <v>4308</v>
-      </c>
-      <c r="C98" s="5"/>
+        <v>2314</v>
+      </c>
+      <c r="C98" s="5">
+        <v>1473</v>
+      </c>
+      <c r="D98" t="s">
+        <v>225</v>
+      </c>
+      <c r="E98" t="s">
+        <v>247</v>
+      </c>
       <c r="F98" t="s">
-        <v>298</v>
+        <v>53</v>
+      </c>
+      <c r="G98" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -3440,1727 +3242,1992 @@
         <v>5</v>
       </c>
       <c r="B99" s="5">
-        <v>4309</v>
-      </c>
-      <c r="C99" s="5"/>
+        <v>2313</v>
+      </c>
+      <c r="C99" s="5">
+        <v>1474</v>
+      </c>
+      <c r="D99" t="s">
+        <v>225</v>
+      </c>
+      <c r="E99" t="s">
+        <v>246</v>
+      </c>
       <c r="F99" t="s">
-        <v>299</v>
+        <v>269</v>
+      </c>
+      <c r="G99" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" s="5"/>
+      <c r="A100" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="B100" s="5">
-        <v>4310</v>
+        <v>4340</v>
       </c>
       <c r="C100" s="5">
-        <v>7589</v>
+        <v>5896</v>
       </c>
       <c r="D100" t="s">
-        <v>227</v>
+        <v>225</v>
+      </c>
+      <c r="E100" t="s">
+        <v>258</v>
+      </c>
+      <c r="F100" t="s">
+        <v>281</v>
       </c>
       <c r="G100" t="s">
-        <v>202</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101" s="5"/>
+      <c r="A101" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="B101" s="5">
-        <v>4311</v>
+        <v>2315</v>
       </c>
       <c r="C101" s="5">
-        <v>5878</v>
+        <v>5856</v>
       </c>
       <c r="D101" t="s">
-        <v>227</v>
+        <v>225</v>
+      </c>
+      <c r="E101" t="s">
+        <v>247</v>
+      </c>
+      <c r="F101" t="s">
+        <v>270</v>
       </c>
       <c r="G101" t="s">
-        <v>181</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="5"/>
+      <c r="A102" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="B102" s="5">
-        <v>4312</v>
+        <v>2301</v>
       </c>
       <c r="C102" s="5">
-        <v>5876</v>
+        <v>5842</v>
       </c>
       <c r="D102" t="s">
-        <v>227</v>
+        <v>225</v>
+      </c>
+      <c r="E102" t="s">
+        <v>242</v>
+      </c>
+      <c r="F102" t="s">
+        <v>265</v>
       </c>
       <c r="G102" t="s">
-        <v>193</v>
+        <v>59</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" s="5"/>
+      <c r="A103" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="B103" s="5">
-        <v>4313</v>
+        <v>4304</v>
       </c>
       <c r="C103" s="5">
-        <v>1486</v>
+        <v>5848</v>
       </c>
       <c r="D103" t="s">
-        <v>227</v>
+        <v>225</v>
+      </c>
+      <c r="E103" t="s">
+        <v>256</v>
+      </c>
+      <c r="F103" t="s">
+        <v>280</v>
       </c>
       <c r="G103" t="s">
-        <v>220</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" s="5"/>
+      <c r="A104" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="B104" s="5">
-        <v>4314</v>
+        <v>2310</v>
       </c>
       <c r="C104" s="5">
-        <v>6579</v>
+        <v>1477</v>
       </c>
       <c r="D104" t="s">
-        <v>227</v>
+        <v>225</v>
+      </c>
+      <c r="E104" t="s">
+        <v>245</v>
+      </c>
+      <c r="F104" t="s">
+        <v>268</v>
       </c>
       <c r="G104" t="s">
-        <v>180</v>
+        <v>44</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105" s="5"/>
+      <c r="A105" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="B105" s="5">
-        <v>4316</v>
+        <v>2311</v>
       </c>
       <c r="C105" s="5">
-        <v>6578</v>
+        <v>1476</v>
       </c>
       <c r="D105" t="s">
-        <v>227</v>
+        <v>225</v>
+      </c>
+      <c r="E105" t="s">
+        <v>245</v>
+      </c>
+      <c r="F105" t="s">
+        <v>268</v>
       </c>
       <c r="G105" t="s">
-        <v>218</v>
+        <v>44</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" s="5"/>
+      <c r="A106" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="B106" s="5">
-        <v>4317</v>
+        <v>2309</v>
       </c>
       <c r="C106" s="5">
-        <v>5845</v>
+        <v>5839</v>
       </c>
       <c r="D106" t="s">
-        <v>227</v>
+        <v>225</v>
+      </c>
+      <c r="E106" t="s">
+        <v>244</v>
+      </c>
+      <c r="F106" t="s">
+        <v>267</v>
       </c>
       <c r="G106" t="s">
-        <v>208</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" s="5"/>
+      <c r="A107" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="B107" s="5">
-        <v>4318</v>
+        <v>2321</v>
       </c>
       <c r="C107" s="5">
-        <v>5897</v>
+        <v>5590</v>
       </c>
       <c r="D107" t="s">
-        <v>231</v>
+        <v>225</v>
+      </c>
+      <c r="E107" t="s">
+        <v>244</v>
+      </c>
+      <c r="F107" t="s">
+        <v>271</v>
       </c>
       <c r="G107" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" s="5"/>
+      <c r="A108" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="B108" s="5">
-        <v>4319</v>
+        <v>4302</v>
       </c>
       <c r="C108" s="5">
-        <v>5899</v>
+        <v>5575</v>
       </c>
       <c r="D108" t="s">
-        <v>231</v>
+        <v>225</v>
+      </c>
+      <c r="E108" t="s">
+        <v>301</v>
+      </c>
+      <c r="F108" t="s">
+        <v>302</v>
       </c>
       <c r="G108" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" s="5"/>
+      <c r="A109" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="B109" s="5">
-        <v>4320</v>
+        <v>4342</v>
       </c>
       <c r="C109" s="5">
-        <v>1482</v>
+        <v>5566</v>
       </c>
       <c r="D109" t="s">
-        <v>227</v>
+        <v>225</v>
+      </c>
+      <c r="E109" t="s">
+        <v>260</v>
+      </c>
+      <c r="F109" t="s">
+        <v>283</v>
       </c>
       <c r="G109" t="s">
-        <v>177</v>
+        <v>40</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" s="5"/>
-      <c r="B110" s="5">
-        <v>4321</v>
+      <c r="A110" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="C110" s="5">
-        <v>7542</v>
+        <v>7596</v>
       </c>
       <c r="D110" t="s">
-        <v>227</v>
+        <v>225</v>
+      </c>
+      <c r="F110" t="s">
+        <v>272</v>
       </c>
       <c r="G110" t="s">
-        <v>176</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" s="5"/>
-      <c r="B111" s="5">
-        <v>4322</v>
+      <c r="A111" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C111" s="5">
-        <v>5869</v>
+        <v>5693</v>
       </c>
       <c r="D111" t="s">
-        <v>227</v>
+        <v>225</v>
+      </c>
+      <c r="F111" t="s">
+        <v>272</v>
       </c>
       <c r="G111" t="s">
-        <v>204</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" s="5"/>
+      <c r="A112" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="B112" s="5">
-        <v>4323</v>
+        <v>4339</v>
       </c>
       <c r="C112" s="5">
-        <v>5852</v>
+        <v>5832</v>
       </c>
       <c r="D112" t="s">
-        <v>227</v>
+        <v>225</v>
+      </c>
+      <c r="E112" t="s">
+        <v>257</v>
+      </c>
+      <c r="F112" t="s">
+        <v>36</v>
       </c>
       <c r="G112" t="s">
-        <v>194</v>
+        <v>63</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="5"/>
+      <c r="A113" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="B113" s="5">
-        <v>4327</v>
-      </c>
-      <c r="C113" s="5"/>
+        <v>3319</v>
+      </c>
+      <c r="C113" s="5">
+        <v>7561</v>
+      </c>
       <c r="D113" t="s">
-        <v>230</v>
+        <v>225</v>
+      </c>
+      <c r="E113" t="s">
+        <v>33</v>
+      </c>
+      <c r="F113" t="s">
+        <v>33</v>
       </c>
       <c r="G113" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A114" s="5"/>
+      <c r="A114" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="B114" s="5">
-        <v>4327</v>
-      </c>
-      <c r="C114" s="5"/>
+        <v>3320</v>
+      </c>
+      <c r="C114" s="5">
+        <v>7562</v>
+      </c>
       <c r="D114" t="s">
-        <v>230</v>
+        <v>225</v>
+      </c>
+      <c r="E114" t="s">
+        <v>33</v>
+      </c>
+      <c r="F114" t="s">
+        <v>33</v>
       </c>
       <c r="G114" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A115" s="5"/>
+      <c r="A115" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="B115" s="5">
-        <v>4327</v>
-      </c>
-      <c r="C115" s="5"/>
+        <v>3321</v>
+      </c>
+      <c r="C115" s="5">
+        <v>7563</v>
+      </c>
       <c r="D115" t="s">
-        <v>230</v>
+        <v>225</v>
+      </c>
+      <c r="E115" t="s">
+        <v>33</v>
+      </c>
+      <c r="F115" t="s">
+        <v>33</v>
       </c>
       <c r="G115" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A116" s="5"/>
+      <c r="A116" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="B116" s="5">
-        <v>4327</v>
-      </c>
-      <c r="C116" s="5"/>
+        <v>3322</v>
+      </c>
+      <c r="C116" s="5">
+        <v>7564</v>
+      </c>
       <c r="D116" t="s">
-        <v>230</v>
+        <v>225</v>
+      </c>
+      <c r="E116" t="s">
+        <v>33</v>
+      </c>
+      <c r="F116" t="s">
+        <v>33</v>
       </c>
       <c r="G116" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A117" s="5"/>
+      <c r="A117" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="B117" s="5">
-        <v>4327</v>
-      </c>
-      <c r="C117" s="5"/>
+        <v>3003</v>
+      </c>
+      <c r="C117" s="5">
+        <v>5765</v>
+      </c>
       <c r="D117" t="s">
-        <v>230</v>
+        <v>225</v>
+      </c>
+      <c r="E117" t="s">
+        <v>263</v>
+      </c>
+      <c r="F117" t="s">
+        <v>17</v>
       </c>
       <c r="G117" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A118" s="5"/>
+      <c r="A118" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="B118" s="5">
-        <v>4329</v>
-      </c>
-      <c r="C118" s="5">
-        <v>1488</v>
+        <v>2011</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="D118" t="s">
-        <v>227</v>
+        <v>226</v>
+      </c>
+      <c r="E118" t="s">
+        <v>136</v>
+      </c>
+      <c r="F118" t="s">
+        <v>284</v>
       </c>
       <c r="G118" t="s">
-        <v>184</v>
+        <v>67</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A119" s="5"/>
+      <c r="A119" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="B119" s="5">
-        <v>4330</v>
-      </c>
-      <c r="C119" s="5">
-        <v>1485</v>
+        <v>2019</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="D119" t="s">
-        <v>227</v>
+        <v>226</v>
+      </c>
+      <c r="E119" t="s">
+        <v>136</v>
+      </c>
+      <c r="F119" t="s">
+        <v>291</v>
       </c>
       <c r="G119" t="s">
-        <v>186</v>
+        <v>67</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A120" s="5"/>
+      <c r="A120" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="B120" s="5">
-        <v>4331</v>
-      </c>
-      <c r="C120" s="5">
-        <v>1489</v>
+        <v>2020</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="D120" t="s">
-        <v>227</v>
+        <v>226</v>
+      </c>
+      <c r="E120" t="s">
+        <v>136</v>
+      </c>
+      <c r="F120" t="s">
+        <v>291</v>
       </c>
       <c r="G120" t="s">
-        <v>198</v>
+        <v>67</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A121" s="5"/>
+      <c r="A121" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="B121" s="5">
-        <v>4334</v>
-      </c>
-      <c r="C121" s="5">
-        <v>5835</v>
+        <v>2021</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="D121" t="s">
-        <v>227</v>
+        <v>226</v>
+      </c>
+      <c r="E121" t="s">
+        <v>136</v>
+      </c>
+      <c r="F121" t="s">
+        <v>292</v>
       </c>
       <c r="G121" t="s">
-        <v>174</v>
+        <v>67</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" s="5"/>
+      <c r="A122" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="B122" s="5">
-        <v>4335</v>
-      </c>
-      <c r="C122" s="5">
-        <v>7586</v>
+        <v>2022</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="D122" t="s">
-        <v>227</v>
+        <v>226</v>
+      </c>
+      <c r="E122" t="s">
+        <v>136</v>
+      </c>
+      <c r="F122" t="s">
+        <v>293</v>
       </c>
       <c r="G122" t="s">
-        <v>171</v>
+        <v>67</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" s="5"/>
+      <c r="A123" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="B123" s="5">
-        <v>4336</v>
-      </c>
-      <c r="C123" s="5">
-        <v>1469</v>
+        <v>2023</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="D123" t="s">
-        <v>227</v>
+        <v>226</v>
+      </c>
+      <c r="E123" t="s">
+        <v>136</v>
+      </c>
+      <c r="F123" t="s">
+        <v>284</v>
       </c>
       <c r="G123" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A124" s="5"/>
+      <c r="A124" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="B124" s="5">
-        <v>4336</v>
-      </c>
-      <c r="C124" s="5">
-        <v>5571</v>
+        <v>3006</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="D124" t="s">
-        <v>228</v>
+        <v>226</v>
+      </c>
+      <c r="F124" t="s">
+        <v>70</v>
       </c>
       <c r="G124" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" s="5"/>
+      <c r="A125" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="B125" s="5">
-        <v>4336</v>
+        <v>2017</v>
       </c>
       <c r="C125" s="5">
-        <v>5571</v>
+        <v>5859</v>
       </c>
       <c r="D125" t="s">
-        <v>228</v>
+        <v>226</v>
+      </c>
+      <c r="E125" t="s">
+        <v>136</v>
+      </c>
+      <c r="F125" t="s">
+        <v>286</v>
       </c>
       <c r="G125" t="s">
-        <v>158</v>
+        <v>78</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A126" s="5"/>
+      <c r="A126" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="B126" s="5">
-        <v>4337</v>
+        <v>2018</v>
       </c>
       <c r="C126" s="5">
-        <v>1483</v>
+        <v>5859</v>
       </c>
       <c r="D126" t="s">
-        <v>227</v>
+        <v>226</v>
+      </c>
+      <c r="E126" t="s">
+        <v>136</v>
+      </c>
+      <c r="F126" t="s">
+        <v>286</v>
       </c>
       <c r="G126" t="s">
-        <v>189</v>
+        <v>78</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B127" s="5">
-        <v>4339</v>
+        <v>3007</v>
       </c>
       <c r="C127" s="5">
-        <v>5832</v>
+        <v>5571</v>
       </c>
       <c r="D127" t="s">
-        <v>225</v>
-      </c>
-      <c r="E127" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="F127" t="s">
-        <v>36</v>
+        <v>287</v>
       </c>
       <c r="G127" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B128" s="5">
-        <v>4340</v>
+        <v>3001</v>
       </c>
       <c r="C128" s="5">
-        <v>5896</v>
+        <v>5570</v>
       </c>
       <c r="D128" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E128" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="F128" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="G128" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B129" s="5">
-        <v>4341</v>
+        <v>3001</v>
       </c>
       <c r="C129" s="5">
-        <v>5850</v>
+        <v>5570</v>
       </c>
       <c r="D129" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E129" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="F129" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="G129" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B130" s="5">
-        <v>4342</v>
-      </c>
-      <c r="C130" s="5">
-        <v>5566</v>
+        <v>2012</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="D130" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E130" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="F130" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G130" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" s="5"/>
+      <c r="A131" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="B131" s="5">
-        <v>5308</v>
+        <v>3011</v>
       </c>
       <c r="C131" s="5">
-        <v>5830</v>
+        <v>5588</v>
       </c>
       <c r="D131" t="s">
-        <v>133</v>
+        <v>226</v>
+      </c>
+      <c r="E131" t="s">
+        <v>262</v>
       </c>
       <c r="F131" t="s">
-        <v>134</v>
+        <v>84</v>
+      </c>
+      <c r="G131" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A132" s="5"/>
+      <c r="A132" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="B132" s="5">
-        <v>5309</v>
+        <v>3012</v>
       </c>
       <c r="C132" s="5">
-        <v>5567</v>
+        <v>5866</v>
       </c>
       <c r="D132" t="s">
-        <v>228</v>
+        <v>226</v>
+      </c>
+      <c r="E132" t="s">
+        <v>262</v>
+      </c>
+      <c r="F132" t="s">
+        <v>84</v>
       </c>
       <c r="G132" t="s">
-        <v>169</v>
+        <v>26</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A133" s="5"/>
+      <c r="A133" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="B133" s="5">
-        <v>5309</v>
-      </c>
-      <c r="C133" s="5">
-        <v>5911</v>
+        <v>3013</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="D133" t="s">
-        <v>228</v>
+        <v>226</v>
+      </c>
+      <c r="E133" t="s">
+        <v>262</v>
+      </c>
+      <c r="F133" t="s">
+        <v>84</v>
       </c>
       <c r="G133" t="s">
-        <v>140</v>
+        <v>26</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A134" s="5"/>
+      <c r="A134" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="B134" s="5">
-        <v>5309</v>
+        <v>3014</v>
       </c>
       <c r="C134" s="5">
-        <v>5580</v>
+        <v>5569</v>
       </c>
       <c r="D134" t="s">
-        <v>228</v>
+        <v>226</v>
+      </c>
+      <c r="E134" t="s">
+        <v>262</v>
+      </c>
+      <c r="F134" t="s">
+        <v>84</v>
       </c>
       <c r="G134" t="s">
-        <v>142</v>
+        <v>26</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A135" s="5"/>
+      <c r="A135" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="B135" s="5">
-        <v>5309</v>
+        <v>3014</v>
       </c>
       <c r="C135" s="5">
-        <v>5865</v>
+        <v>5565</v>
       </c>
       <c r="D135" t="s">
-        <v>228</v>
+        <v>226</v>
+      </c>
+      <c r="E135" t="s">
+        <v>262</v>
+      </c>
+      <c r="F135" t="s">
+        <v>84</v>
       </c>
       <c r="G135" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A136" s="5"/>
+      <c r="A136" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="B136" s="5">
-        <v>5309</v>
+        <v>3015</v>
       </c>
       <c r="C136" s="5">
-        <v>5861</v>
+        <v>5572</v>
       </c>
       <c r="D136" t="s">
-        <v>228</v>
+        <v>226</v>
+      </c>
+      <c r="E136" t="s">
+        <v>262</v>
+      </c>
+      <c r="F136" t="s">
+        <v>84</v>
       </c>
       <c r="G136" t="s">
-        <v>146</v>
+        <v>26</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A137" s="5"/>
+      <c r="A137" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="B137" s="5">
-        <v>5309</v>
+        <v>3015</v>
       </c>
       <c r="C137" s="5">
-        <v>5595</v>
+        <v>5837</v>
       </c>
       <c r="D137" t="s">
-        <v>228</v>
+        <v>226</v>
+      </c>
+      <c r="E137" t="s">
+        <v>262</v>
+      </c>
+      <c r="F137" t="s">
+        <v>84</v>
       </c>
       <c r="G137" t="s">
-        <v>147</v>
+        <v>26</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A138" s="5"/>
-      <c r="B138" s="5">
-        <v>5309</v>
+      <c r="A138" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="C138" s="5">
-        <v>5568</v>
+        <v>5855</v>
       </c>
       <c r="D138" t="s">
-        <v>228</v>
+        <v>226</v>
+      </c>
+      <c r="E138" t="s">
+        <v>262</v>
+      </c>
+      <c r="F138" t="s">
+        <v>84</v>
       </c>
       <c r="G138" t="s">
-        <v>148</v>
+        <v>26</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="5"/>
       <c r="B139" s="5">
-        <v>5309</v>
+        <v>1003</v>
       </c>
       <c r="C139" s="5">
-        <v>5907</v>
+        <v>5811</v>
       </c>
       <c r="D139" t="s">
-        <v>228</v>
+        <v>19</v>
+      </c>
+      <c r="F139" t="s">
+        <v>241</v>
       </c>
       <c r="G139" t="s">
-        <v>152</v>
+        <v>238</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="5"/>
       <c r="B140" s="5">
-        <v>5309</v>
+        <v>2005</v>
       </c>
       <c r="C140" s="5">
-        <v>7540</v>
+        <v>5380</v>
       </c>
       <c r="D140" t="s">
-        <v>228</v>
+        <v>19</v>
+      </c>
+      <c r="F140" t="s">
+        <v>239</v>
       </c>
       <c r="G140" t="s">
-        <v>154</v>
+        <v>236</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="5"/>
       <c r="B141" s="5">
-        <v>5309</v>
+        <v>2005</v>
       </c>
       <c r="C141" s="5">
-        <v>5860</v>
+        <v>7547</v>
       </c>
       <c r="D141" t="s">
-        <v>228</v>
+        <v>19</v>
+      </c>
+      <c r="F141" t="s">
+        <v>235</v>
       </c>
       <c r="G141" t="s">
-        <v>160</v>
+        <v>234</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="5"/>
       <c r="B142" s="5">
-        <v>5309</v>
+        <v>2005</v>
       </c>
       <c r="C142" s="5">
-        <v>5853</v>
+        <v>5806</v>
       </c>
       <c r="D142" t="s">
-        <v>228</v>
+        <v>19</v>
+      </c>
+      <c r="F142" t="s">
+        <v>240</v>
       </c>
       <c r="G142" t="s">
-        <v>163</v>
+        <v>237</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="5"/>
       <c r="B143" s="5">
-        <v>5309</v>
+        <v>1002</v>
       </c>
       <c r="C143" s="5">
-        <v>5831</v>
+        <v>5801</v>
       </c>
       <c r="D143" t="s">
-        <v>228</v>
-      </c>
-      <c r="G143" t="s">
-        <v>166</v>
+        <v>19</v>
+      </c>
+      <c r="F143" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="5"/>
       <c r="B144" s="5">
-        <v>5309</v>
+        <v>1034</v>
       </c>
       <c r="C144" s="5">
-        <v>5838</v>
+        <v>5593</v>
       </c>
       <c r="D144" t="s">
-        <v>228</v>
-      </c>
-      <c r="G144" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F144" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="5"/>
       <c r="B145" s="5">
-        <v>5309</v>
+        <v>1047</v>
       </c>
       <c r="C145" s="5">
-        <v>5860</v>
+        <v>5823</v>
       </c>
       <c r="D145" t="s">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="F145" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="5"/>
       <c r="B146" s="5">
-        <v>5309</v>
+        <v>1048</v>
       </c>
       <c r="C146" s="5">
-        <v>5861</v>
+        <v>5823</v>
       </c>
       <c r="D146" t="s">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="F146" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="5"/>
       <c r="B147" s="5">
-        <v>5311</v>
+        <v>2003</v>
       </c>
       <c r="C147" s="5">
-        <v>5841</v>
+        <v>5818</v>
       </c>
       <c r="D147" t="s">
-        <v>228</v>
-      </c>
-      <c r="G147" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F147" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="5"/>
       <c r="B148" s="5">
-        <v>6306</v>
+        <v>2004</v>
       </c>
       <c r="C148" s="5">
-        <v>5877</v>
+        <v>5812</v>
       </c>
       <c r="D148" t="s">
-        <v>227</v>
-      </c>
-      <c r="G148" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F148" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="5"/>
       <c r="B149" s="5">
-        <v>6307</v>
+        <v>2040</v>
       </c>
       <c r="C149" s="5">
-        <v>5874</v>
+        <v>5393</v>
       </c>
       <c r="D149" t="s">
-        <v>227</v>
-      </c>
-      <c r="G149" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A150" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="F149" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="B150" s="5">
-        <v>6308</v>
-      </c>
-      <c r="C150" s="5">
-        <v>7533</v>
-      </c>
+        <v>3004</v>
+      </c>
+      <c r="C150" s="5"/>
       <c r="D150" t="s">
-        <v>227</v>
-      </c>
-      <c r="G150" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F150" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="5"/>
       <c r="B151" s="5">
-        <v>6309</v>
+        <v>3117</v>
       </c>
       <c r="C151" s="5">
-        <v>5864</v>
+        <v>5805</v>
       </c>
       <c r="D151" t="s">
-        <v>227</v>
-      </c>
-      <c r="G151" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F151" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="5"/>
       <c r="B152" s="5">
-        <v>6310</v>
+        <v>3118</v>
       </c>
       <c r="C152" s="5">
-        <v>5586</v>
+        <v>5822</v>
       </c>
       <c r="D152" t="s">
-        <v>227</v>
-      </c>
-      <c r="G152" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F152" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="5"/>
       <c r="B153" s="5">
-        <v>6311</v>
+        <v>3119</v>
       </c>
       <c r="C153" s="5">
-        <v>5895</v>
+        <v>5807</v>
       </c>
       <c r="D153" t="s">
-        <v>227</v>
-      </c>
-      <c r="G153" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F153" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="5"/>
       <c r="B154" s="5">
-        <v>6312</v>
+        <v>3124</v>
       </c>
       <c r="C154" s="5">
-        <v>7587</v>
+        <v>5564</v>
       </c>
       <c r="D154" t="s">
-        <v>227</v>
-      </c>
-      <c r="G154" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F154" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="5"/>
       <c r="B155" s="5">
-        <v>6313</v>
+        <v>4222</v>
       </c>
       <c r="C155" s="5">
-        <v>7541</v>
+        <v>5802</v>
       </c>
       <c r="D155" t="s">
-        <v>227</v>
-      </c>
-      <c r="G155" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F155" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="5"/>
-      <c r="B156" s="5">
-        <v>6314</v>
+      <c r="B156" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="C156" s="5">
-        <v>5881</v>
+        <v>1471</v>
       </c>
       <c r="D156" t="s">
-        <v>227</v>
-      </c>
-      <c r="G156" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F156" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="5"/>
-      <c r="B157" s="5">
-        <v>6315</v>
+      <c r="B157" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="C157" s="5">
-        <v>7584</v>
+        <v>5825</v>
       </c>
       <c r="D157" t="s">
-        <v>227</v>
-      </c>
-      <c r="G157" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F157" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="5"/>
-      <c r="B158" s="5">
-        <v>6316</v>
+      <c r="B158" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="C158" s="5">
-        <v>5594</v>
+        <v>5824</v>
       </c>
       <c r="D158" t="s">
-        <v>227</v>
-      </c>
-      <c r="G158" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F158" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="5"/>
-      <c r="B159" s="5">
-        <v>6317</v>
-      </c>
+      <c r="B159" s="5"/>
       <c r="C159" s="5">
-        <v>5836</v>
+        <v>6648</v>
       </c>
       <c r="D159" t="s">
-        <v>227</v>
-      </c>
-      <c r="G159" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F159" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="5"/>
-      <c r="B160" s="5">
-        <v>6318</v>
-      </c>
+      <c r="B160" s="5"/>
       <c r="C160" s="5">
-        <v>7597</v>
+        <v>5820</v>
       </c>
       <c r="D160" t="s">
-        <v>227</v>
-      </c>
-      <c r="G160" t="s">
-        <v>182</v>
+        <v>19</v>
+      </c>
+      <c r="F160" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="5"/>
       <c r="B161" s="5">
-        <v>6319</v>
+        <v>5309</v>
       </c>
       <c r="C161" s="5">
-        <v>7535</v>
+        <v>5567</v>
       </c>
       <c r="D161" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G161" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="5"/>
       <c r="B162" s="5">
-        <v>6320</v>
+        <v>3001</v>
       </c>
       <c r="C162" s="5">
-        <v>7583</v>
+        <v>5583</v>
       </c>
       <c r="D162" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G162" t="s">
-        <v>211</v>
+        <v>139</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="5"/>
       <c r="B163" s="5">
-        <v>6322</v>
+        <v>5309</v>
       </c>
       <c r="C163" s="5">
-        <v>5849</v>
+        <v>5911</v>
       </c>
       <c r="D163" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G163" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="5"/>
-      <c r="B164" s="5">
-        <v>6323</v>
-      </c>
-      <c r="C164" s="5">
-        <v>5870</v>
+      <c r="B164" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="D164" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G164" t="s">
-        <v>203</v>
+        <v>141</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="5"/>
       <c r="B165" s="5">
-        <v>6324</v>
+        <v>5309</v>
       </c>
       <c r="C165" s="5">
-        <v>7590</v>
+        <v>5580</v>
       </c>
       <c r="D165" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G165" t="s">
-        <v>196</v>
+        <v>142</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="5"/>
       <c r="B166" s="5">
-        <v>6325</v>
+        <v>2017</v>
       </c>
       <c r="C166" s="5">
-        <v>7599</v>
+        <v>5859</v>
       </c>
       <c r="D166" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G166" t="s">
-        <v>207</v>
+        <v>143</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="5"/>
       <c r="B167" s="5">
-        <v>6326</v>
+        <v>5309</v>
       </c>
       <c r="C167" s="5">
-        <v>7538</v>
+        <v>5865</v>
       </c>
       <c r="D167" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G167" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="5"/>
       <c r="B168" s="5">
-        <v>6327</v>
+        <v>3002</v>
       </c>
       <c r="C168" s="5">
-        <v>7536</v>
+        <v>5817</v>
       </c>
       <c r="D168" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G168" t="s">
-        <v>192</v>
+        <v>145</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="5"/>
       <c r="B169" s="5">
-        <v>6328</v>
+        <v>5309</v>
       </c>
       <c r="C169" s="5">
-        <v>5883</v>
+        <v>5861</v>
       </c>
       <c r="D169" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G169" t="s">
-        <v>14</v>
+        <v>146</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="5"/>
       <c r="B170" s="5">
-        <v>6329</v>
+        <v>5309</v>
       </c>
       <c r="C170" s="5">
-        <v>7534</v>
+        <v>5595</v>
       </c>
       <c r="D170" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G170" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="5"/>
       <c r="B171" s="5">
-        <v>6330</v>
+        <v>5309</v>
       </c>
       <c r="C171" s="5">
-        <v>7588</v>
+        <v>5568</v>
       </c>
       <c r="D171" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G171" t="s">
-        <v>195</v>
+        <v>148</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="5"/>
       <c r="B172" s="5">
-        <v>6331</v>
+        <v>3001</v>
       </c>
       <c r="C172" s="5">
-        <v>7539</v>
+        <v>5829</v>
       </c>
       <c r="D172" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G172" t="s">
-        <v>212</v>
+        <v>149</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="5"/>
       <c r="B173" s="5">
-        <v>6332</v>
+        <v>3001</v>
       </c>
       <c r="C173" s="5">
-        <v>5890</v>
+        <v>5829</v>
       </c>
       <c r="D173" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G173" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="5"/>
       <c r="B174" s="5">
-        <v>6333</v>
+        <v>3002</v>
       </c>
       <c r="C174" s="5">
-        <v>5872</v>
+        <v>5817</v>
       </c>
       <c r="D174" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G174" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="5"/>
       <c r="B175" s="5">
-        <v>7306</v>
+        <v>5309</v>
       </c>
       <c r="C175" s="5">
-        <v>5868</v>
+        <v>5907</v>
       </c>
       <c r="D175" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G175" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="5"/>
       <c r="B176" s="5">
-        <v>7307</v>
+        <v>4336</v>
       </c>
       <c r="C176" s="5">
-        <v>5880</v>
+        <v>5571</v>
       </c>
       <c r="D176" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G176" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="5"/>
       <c r="B177" s="5">
-        <v>7308</v>
+        <v>5309</v>
       </c>
       <c r="C177" s="5">
-        <v>5867</v>
+        <v>7540</v>
       </c>
       <c r="D177" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G177" t="s">
-        <v>221</v>
+        <v>154</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="5"/>
       <c r="B178" s="5">
-        <v>7309</v>
+        <v>3007</v>
       </c>
       <c r="C178" s="5">
-        <v>5898</v>
+        <v>5571</v>
       </c>
       <c r="D178" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G178" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="5"/>
       <c r="B179" s="5">
-        <v>7310</v>
+        <v>2315</v>
       </c>
       <c r="C179" s="5">
-        <v>5887</v>
+        <v>5856</v>
       </c>
       <c r="D179" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G179" t="s">
-        <v>63</v>
+        <v>156</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="5"/>
       <c r="B180" s="5">
-        <v>7311</v>
+        <v>3001</v>
       </c>
       <c r="C180" s="5">
-        <v>7537</v>
+        <v>5578</v>
       </c>
       <c r="D180" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G180" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="5"/>
       <c r="B181" s="5">
-        <v>7312</v>
+        <v>4336</v>
       </c>
       <c r="C181" s="5">
-        <v>5893</v>
+        <v>5571</v>
       </c>
       <c r="D181" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G181" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="5"/>
       <c r="B182" s="5">
-        <v>7313</v>
+        <v>3001</v>
       </c>
       <c r="C182" s="5">
-        <v>5871</v>
+        <v>5383</v>
       </c>
       <c r="D182" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G182" t="s">
-        <v>37</v>
+        <v>159</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="5"/>
       <c r="B183" s="5">
-        <v>7314</v>
+        <v>5309</v>
       </c>
       <c r="C183" s="5">
-        <v>5891</v>
+        <v>5860</v>
       </c>
       <c r="D183" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G183" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="5"/>
       <c r="B184" s="5">
-        <v>7315</v>
+        <v>3310</v>
       </c>
       <c r="C184" s="5">
-        <v>5888</v>
+        <v>5854</v>
       </c>
       <c r="D184" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G184" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="5"/>
       <c r="B185" s="5">
-        <v>7316</v>
+        <v>3001</v>
       </c>
       <c r="C185" s="5">
-        <v>5579</v>
+        <v>5577</v>
       </c>
       <c r="D185" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G185" t="s">
-        <v>20</v>
+        <v>162</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="5"/>
       <c r="B186" s="5">
-        <v>7317</v>
+        <v>5309</v>
       </c>
       <c r="C186" s="5">
-        <v>7598</v>
+        <v>5853</v>
       </c>
       <c r="D186" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G186" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="5"/>
       <c r="B187" s="5">
-        <v>7320</v>
+        <v>2017</v>
       </c>
       <c r="C187" s="5">
-        <v>5886</v>
+        <v>5859</v>
       </c>
       <c r="D187" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G187" t="s">
-        <v>214</v>
+        <v>164</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="5"/>
       <c r="B188" s="5">
-        <v>7322</v>
+        <v>5311</v>
       </c>
       <c r="C188" s="5">
-        <v>5587</v>
+        <v>5841</v>
       </c>
       <c r="D188" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G188" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="5"/>
       <c r="B189" s="5">
-        <v>7323</v>
+        <v>5309</v>
       </c>
       <c r="C189" s="5">
-        <v>5892</v>
+        <v>5831</v>
       </c>
       <c r="D189" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G189" t="s">
-        <v>209</v>
+        <v>166</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="5"/>
       <c r="B190" s="5">
-        <v>7324</v>
+        <v>2017</v>
       </c>
       <c r="C190" s="5">
-        <v>5875</v>
+        <v>5859</v>
       </c>
       <c r="D190" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G190" t="s">
-        <v>86</v>
+        <v>167</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="5"/>
       <c r="B191" s="5">
-        <v>7325</v>
+        <v>5309</v>
       </c>
       <c r="C191" s="5">
-        <v>5885</v>
+        <v>5838</v>
       </c>
       <c r="D191" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G191" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="5"/>
       <c r="B192" s="5">
-        <v>7326</v>
+        <v>108</v>
       </c>
       <c r="C192" s="5">
-        <v>5879</v>
+        <v>5733</v>
       </c>
       <c r="D192" t="s">
-        <v>231</v>
-      </c>
-      <c r="G192" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+      <c r="F192" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="5"/>
       <c r="B193" s="5">
-        <v>7327</v>
+        <v>4003</v>
       </c>
       <c r="C193" s="5">
-        <v>5884</v>
+        <v>5970</v>
       </c>
       <c r="D193" t="s">
-        <v>227</v>
-      </c>
-      <c r="G193" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+      <c r="F193" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="5"/>
       <c r="B194" s="5">
-        <v>7327</v>
-      </c>
-      <c r="C194" s="5"/>
+        <v>4054</v>
+      </c>
+      <c r="C194" s="5">
+        <v>5900</v>
+      </c>
       <c r="D194" t="s">
-        <v>230</v>
-      </c>
-      <c r="G194" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+      <c r="F194" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="5"/>
       <c r="B195" s="5">
-        <v>7329</v>
+        <v>4114</v>
       </c>
       <c r="C195" s="5">
-        <v>5847</v>
+        <v>5620</v>
       </c>
       <c r="D195" t="s">
-        <v>227</v>
-      </c>
-      <c r="G195" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+      <c r="F195" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="5"/>
       <c r="B196" s="5">
-        <v>7330</v>
+        <v>2017</v>
       </c>
       <c r="C196" s="5">
-        <v>5882</v>
+        <v>5859</v>
       </c>
       <c r="D196" t="s">
-        <v>227</v>
-      </c>
-      <c r="G196" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+      <c r="F196" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="5"/>
       <c r="B197" s="5">
-        <v>7331</v>
+        <v>3001</v>
       </c>
       <c r="C197" s="5">
-        <v>5589</v>
+        <v>5570</v>
       </c>
       <c r="D197" t="s">
-        <v>227</v>
-      </c>
-      <c r="G197" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+      <c r="F197" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="5"/>
-      <c r="B198" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C198" s="5" t="s">
-        <v>75</v>
+      <c r="B198" s="5">
+        <v>5308</v>
+      </c>
+      <c r="C198" s="5">
+        <v>5830</v>
       </c>
       <c r="D198" t="s">
-        <v>228</v>
-      </c>
-      <c r="G198" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+      <c r="F198" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="5"/>
-      <c r="B199" s="5" t="s">
-        <v>75</v>
+      <c r="B199" s="5">
+        <v>5309</v>
       </c>
       <c r="C199" s="5">
-        <v>1471</v>
+        <v>5860</v>
       </c>
       <c r="D199" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="F199" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="5"/>
-      <c r="B200" s="5" t="s">
-        <v>75</v>
+      <c r="B200" s="5">
+        <v>5309</v>
       </c>
       <c r="C200" s="5">
-        <v>5825</v>
+        <v>5861</v>
       </c>
       <c r="D200" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="F200" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A201" s="5"/>
-      <c r="B201" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C201" s="5">
-        <v>5824</v>
-      </c>
-      <c r="D201" t="s">
-        <v>19</v>
-      </c>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B201" s="5">
+        <v>3303</v>
+      </c>
+      <c r="C201" s="5"/>
       <c r="F201" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B202" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C202" s="5">
-        <v>5855</v>
-      </c>
-      <c r="D202" t="s">
-        <v>226</v>
-      </c>
-      <c r="E202" t="s">
-        <v>262</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B202" s="5">
+        <v>3304</v>
+      </c>
+      <c r="C202" s="5"/>
       <c r="F202" t="s">
-        <v>84</v>
-      </c>
-      <c r="G202" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B203" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C203" s="5">
-        <v>7596</v>
-      </c>
-      <c r="D203" t="s">
-        <v>225</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B203" s="5">
+        <v>3305</v>
+      </c>
+      <c r="C203" s="5"/>
       <c r="F203" t="s">
-        <v>272</v>
-      </c>
-      <c r="G203" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B204" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C204" s="5">
-        <v>5693</v>
-      </c>
-      <c r="D204" t="s">
-        <v>225</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B204" s="5">
+        <v>3306</v>
+      </c>
+      <c r="C204" s="5"/>
       <c r="F204" t="s">
-        <v>272</v>
-      </c>
-      <c r="G204" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A205" s="5"/>
-      <c r="B205" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C205" s="5">
-        <v>5858</v>
-      </c>
-      <c r="D205" t="s">
-        <v>227</v>
-      </c>
-      <c r="G205" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A206" s="5"/>
-      <c r="B206" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C206" s="5">
-        <v>5857</v>
-      </c>
-      <c r="D206" t="s">
-        <v>227</v>
-      </c>
-      <c r="G206" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A207" s="5"/>
-      <c r="B207" s="5"/>
-      <c r="C207" s="5">
-        <v>6648</v>
-      </c>
-      <c r="D207" t="s">
-        <v>19</v>
-      </c>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B205" s="5">
+        <v>3307</v>
+      </c>
+      <c r="C205" s="5"/>
+      <c r="F205" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B206" s="5">
+        <v>3308</v>
+      </c>
+      <c r="C206" s="5"/>
+      <c r="F206" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B207" s="5">
+        <v>4301</v>
+      </c>
+      <c r="C207" s="5"/>
       <c r="F207" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A208" s="5"/>
-      <c r="B208" s="5"/>
-      <c r="C208" s="5">
-        <v>5820</v>
-      </c>
-      <c r="D208" t="s">
-        <v>19</v>
-      </c>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B208" s="5">
+        <v>4305</v>
+      </c>
+      <c r="C208" s="5"/>
       <c r="F208" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A209" s="5"/>
-      <c r="B209" s="5"/>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B209" s="5">
+        <v>4306</v>
+      </c>
       <c r="C209" s="5"/>
-      <c r="D209" t="s">
-        <v>231</v>
-      </c>
-      <c r="G209" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A210" s="5"/>
-      <c r="B210" s="5"/>
+      <c r="F209" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B210" s="5">
+        <v>4307</v>
+      </c>
       <c r="C210" s="5"/>
-      <c r="D210" t="s">
-        <v>231</v>
-      </c>
-      <c r="G210" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A211" s="5"/>
-      <c r="B211" s="5"/>
+      <c r="F210" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B211" s="5">
+        <v>4308</v>
+      </c>
       <c r="C211" s="5"/>
-      <c r="D211" t="s">
-        <v>231</v>
-      </c>
-      <c r="G211" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A212" s="5"/>
-      <c r="B212" s="5"/>
+      <c r="F211" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B212" s="5">
+        <v>4309</v>
+      </c>
       <c r="C212" s="5"/>
-      <c r="D212" t="s">
-        <v>231</v>
-      </c>
-      <c r="G212" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3"/>
+      <c r="F212" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5172,6 +5239,99 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212C0BBF-BACB-4196-B666-30CEFBE7F060}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="B2:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.33203125" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1">
+        <v>4327</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
+        <v>4327</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
+        <v>7327</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
+        <v>4327</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
+        <v>4327</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
+        <v>4327</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29BE6D4C-6F5D-4FCC-9480-CFF1BA768EEE}">
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -5360,6 +5520,1320 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9B8915-CBA7-4C44-8AD2-2299416E9070}">
+  <dimension ref="A1:F82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
+        <v>4310</v>
+      </c>
+      <c r="B2" s="14">
+        <v>7589</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
+        <v>4311</v>
+      </c>
+      <c r="B3" s="14">
+        <v>5878</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>4312</v>
+      </c>
+      <c r="B4" s="14">
+        <v>5876</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
+        <v>4313</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1486</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
+        <v>4314</v>
+      </c>
+      <c r="B6" s="13">
+        <v>6579</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
+        <v>4316</v>
+      </c>
+      <c r="B7" s="14">
+        <v>6578</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>4317</v>
+      </c>
+      <c r="B8" s="14">
+        <v>5845</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
+        <v>4318</v>
+      </c>
+      <c r="B9" s="13">
+        <v>5897</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
+        <v>4319</v>
+      </c>
+      <c r="B10" s="14">
+        <v>5899</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="14">
+        <v>4320</v>
+      </c>
+      <c r="B11" s="14">
+        <v>1482</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
+        <v>4321</v>
+      </c>
+      <c r="B12" s="14">
+        <v>7542</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
+        <v>4322</v>
+      </c>
+      <c r="B13" s="13">
+        <v>5869</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
+        <v>4323</v>
+      </c>
+      <c r="B14" s="13">
+        <v>5852</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
+        <v>4327</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="14">
+        <v>4327</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="14">
+        <v>4327</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="13">
+        <v>4327</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="14">
+        <v>4327</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="13">
+        <v>4329</v>
+      </c>
+      <c r="B20" s="13">
+        <v>1488</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="13">
+        <v>4330</v>
+      </c>
+      <c r="B21" s="13">
+        <v>1485</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="14">
+        <v>4331</v>
+      </c>
+      <c r="B22" s="14">
+        <v>1489</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="13">
+        <v>4334</v>
+      </c>
+      <c r="B23" s="13">
+        <v>5835</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="14">
+        <v>4335</v>
+      </c>
+      <c r="B24" s="14">
+        <v>7586</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="14">
+        <v>4336</v>
+      </c>
+      <c r="B25" s="14">
+        <v>1469</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="14">
+        <v>4337</v>
+      </c>
+      <c r="B26" s="14">
+        <v>1483</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="13">
+        <v>6306</v>
+      </c>
+      <c r="B27" s="13">
+        <v>5877</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="14">
+        <v>6307</v>
+      </c>
+      <c r="B28" s="14">
+        <v>5874</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="13">
+        <v>6308</v>
+      </c>
+      <c r="B29" s="13">
+        <v>7533</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="13">
+        <v>6309</v>
+      </c>
+      <c r="B30" s="13">
+        <v>5864</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="14">
+        <v>6310</v>
+      </c>
+      <c r="B31" s="14">
+        <v>5586</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="13">
+        <v>6311</v>
+      </c>
+      <c r="B32" s="13">
+        <v>5895</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="14">
+        <v>6312</v>
+      </c>
+      <c r="B33" s="14">
+        <v>7587</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="13">
+        <v>6313</v>
+      </c>
+      <c r="B34" s="13">
+        <v>7541</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="13">
+        <v>6314</v>
+      </c>
+      <c r="B35" s="13">
+        <v>5881</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="13">
+        <v>6315</v>
+      </c>
+      <c r="B36" s="13">
+        <v>7584</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="14">
+        <v>6316</v>
+      </c>
+      <c r="B37" s="14">
+        <v>5594</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="13">
+        <v>6317</v>
+      </c>
+      <c r="B38" s="13">
+        <v>5836</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="13">
+        <v>6318</v>
+      </c>
+      <c r="B39" s="13">
+        <v>7597</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="14">
+        <v>6319</v>
+      </c>
+      <c r="B40" s="14">
+        <v>7535</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="13">
+        <v>6320</v>
+      </c>
+      <c r="B41" s="13">
+        <v>7583</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="13">
+        <v>6322</v>
+      </c>
+      <c r="B42" s="13">
+        <v>5849</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="14">
+        <v>6323</v>
+      </c>
+      <c r="B43" s="14">
+        <v>5870</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="13">
+        <v>6324</v>
+      </c>
+      <c r="B44" s="13">
+        <v>7590</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="13">
+        <v>6325</v>
+      </c>
+      <c r="B45" s="13">
+        <v>7599</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="13">
+        <v>6326</v>
+      </c>
+      <c r="B46" s="13">
+        <v>7538</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="13">
+        <v>6327</v>
+      </c>
+      <c r="B47" s="13">
+        <v>7536</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="13">
+        <v>6328</v>
+      </c>
+      <c r="B48" s="13">
+        <v>5883</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="13">
+        <v>6329</v>
+      </c>
+      <c r="B49" s="13">
+        <v>7534</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="14">
+        <v>6330</v>
+      </c>
+      <c r="B50" s="14">
+        <v>7588</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="14">
+        <v>6331</v>
+      </c>
+      <c r="B51" s="14">
+        <v>7539</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="14">
+        <v>6332</v>
+      </c>
+      <c r="B52" s="14">
+        <v>5890</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="14">
+        <v>6333</v>
+      </c>
+      <c r="B53" s="14">
+        <v>5872</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="13">
+        <v>7306</v>
+      </c>
+      <c r="B54" s="13">
+        <v>5868</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="13">
+        <v>7307</v>
+      </c>
+      <c r="B55" s="13">
+        <v>5880</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="14">
+        <v>7308</v>
+      </c>
+      <c r="B56" s="14">
+        <v>5867</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="13">
+        <v>7309</v>
+      </c>
+      <c r="B57" s="13">
+        <v>5898</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="13">
+        <v>7310</v>
+      </c>
+      <c r="B58" s="13">
+        <v>5887</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="14">
+        <v>7311</v>
+      </c>
+      <c r="B59" s="14">
+        <v>7537</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="13">
+        <v>7312</v>
+      </c>
+      <c r="B60" s="13">
+        <v>5893</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="14">
+        <v>7313</v>
+      </c>
+      <c r="B61" s="14">
+        <v>5871</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="13">
+        <v>7314</v>
+      </c>
+      <c r="B62" s="13">
+        <v>5891</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="14">
+        <v>7315</v>
+      </c>
+      <c r="B63" s="14">
+        <v>5888</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="14">
+        <v>7316</v>
+      </c>
+      <c r="B64" s="14">
+        <v>5579</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="14">
+        <v>7317</v>
+      </c>
+      <c r="B65" s="14">
+        <v>7598</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="14">
+        <v>7320</v>
+      </c>
+      <c r="B66" s="14">
+        <v>5886</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="14">
+        <v>7322</v>
+      </c>
+      <c r="B67" s="14">
+        <v>5587</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="13">
+        <v>7323</v>
+      </c>
+      <c r="B68" s="13">
+        <v>5892</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="13">
+        <v>7324</v>
+      </c>
+      <c r="B69" s="13">
+        <v>5875</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="13">
+        <v>7325</v>
+      </c>
+      <c r="B70" s="13">
+        <v>5885</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="14">
+        <v>7326</v>
+      </c>
+      <c r="B71" s="14">
+        <v>5879</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="14">
+        <v>7327</v>
+      </c>
+      <c r="B72" s="14">
+        <v>5884</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="13">
+        <v>7327</v>
+      </c>
+      <c r="B73" s="13"/>
+      <c r="C73" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="13">
+        <v>7329</v>
+      </c>
+      <c r="B74" s="13">
+        <v>5847</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="13">
+        <v>7330</v>
+      </c>
+      <c r="B75" s="13">
+        <v>5882</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="13">
+        <v>7331</v>
+      </c>
+      <c r="B76" s="13">
+        <v>5589</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B77" s="13">
+        <v>5858</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B78" s="14">
+        <v>5857</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="14"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="14"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="14"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="14"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F82" xr:uid="{9F9B8915-CBA7-4C44-8AD2-2299416E9070}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F82">
+      <sortCondition ref="A1:A82"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
@@ -5900,7 +7374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F61E779-731B-4A3C-BC85-AF1810C385CF}">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -6184,7 +7658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECCC6A5-86FB-4680-BF06-D1BD7896B0BC}">
   <dimension ref="A1:E63"/>
   <sheetViews>
@@ -6883,7 +8357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D78C5B-2134-4FAF-A408-DA1C092F6434}">
   <dimension ref="A1:E34"/>
   <sheetViews>
@@ -7263,7 +8737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E6BCC2-6B2A-40E5-AAC6-3C6DCD28080E}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -7357,7 +8831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221EEB0D-FA8A-480A-B081-09B0EFEB8101}">
   <dimension ref="A1:E22"/>
   <sheetViews>
@@ -7601,7 +9075,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64E0F7C-61FA-418B-B199-9D36CEDB44B3}">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -7682,97 +9156,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212C0BBF-BACB-4196-B666-30CEFBE7F060}">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="B2:D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" hidden="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1">
-        <v>4327</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1">
-        <v>4327</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1">
-        <v>7327</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1">
-        <v>4327</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1">
-        <v>4327</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1">
-        <v>4327</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/Files/Salas/Salas.xlsx
+++ b/Files/Salas/Salas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\GitHub\UFMG\MiscDocs_PPGCC\Files\Salas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CE5FA4-E6F9-47D1-A6BB-5605A39F9189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24C60BB-9879-4D78-ADE1-7BF08AB91BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="947" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="947" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tudo" sheetId="10" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <author>João Vítor Fernandes Dias</author>
   </authors>
   <commentList>
-    <comment ref="F150" authorId="0" shapeId="0" xr:uid="{688DCF50-965C-4F14-A188-8FDDBA710D0A}">
+    <comment ref="G51" authorId="0" shapeId="0" xr:uid="{688DCF50-965C-4F14-A188-8FDDBA710D0A}">
       <text>
         <r>
           <rPr>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="314">
   <si>
     <t>Nome do Laboratório</t>
   </si>
@@ -992,6 +992,18 @@
   </si>
   <si>
     <t>lavabo masculino</t>
+  </si>
+  <si>
+    <t>Desc. Extra</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1090,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1095,10 +1107,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1108,17 +1120,29 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="39">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1225,12 +1249,6 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -1247,15 +1265,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{610E0157-FE5B-482B-9B76-D633A1DA04A9}" name="Tabela28" displayName="Tabela28" ref="A1:G212" totalsRowShown="0" headerRowDxfId="37">
-  <autoFilter ref="A1:G212" xr:uid="{610E0157-FE5B-482B-9B76-D633A1DA04A9}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G212">
-    <sortCondition descending="1" ref="D1:D212"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{610E0157-FE5B-482B-9B76-D633A1DA04A9}" name="Tabela28" displayName="Tabela28" ref="A1:H212" totalsRowShown="0" headerRowDxfId="38">
+  <autoFilter ref="A1:H212" xr:uid="{610E0157-FE5B-482B-9B76-D633A1DA04A9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H212">
+    <sortCondition ref="B1:B212"/>
   </sortState>
-  <tableColumns count="7">
-    <tableColumn id="7" xr3:uid="{A34B8385-0A96-475C-9478-ABF0D5B62998}" name="Prédio" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{8BB22E70-92A7-49BA-A4F5-453B384EB116}" name="Sala" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{69570758-AB3A-417F-811F-3DB60F0879CD}" name="Ramal" dataDxfId="34"/>
+  <tableColumns count="8">
+    <tableColumn id="7" xr3:uid="{A34B8385-0A96-475C-9478-ABF0D5B62998}" name="Prédio" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{8BB22E70-92A7-49BA-A4F5-453B384EB116}" name="Sala" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{FD1F2BE4-BA0A-489F-AE72-40B2D00E5E01}" name="Desc. Extra" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{69570758-AB3A-417F-811F-3DB60F0879CD}" name="Ramal" dataDxfId="37"/>
     <tableColumn id="1" xr3:uid="{AAB6708D-0F44-449F-910D-A3F832333178}" name="Categoria"/>
     <tableColumn id="2" xr3:uid="{C04B7CED-5195-4CE6-BCF6-A7D1D4BB91A0}" name="Sigla do Laboratório"/>
     <tableColumn id="3" xr3:uid="{D7E0B624-4777-414C-BCFE-DD8471484FFC}" name="Nome do Local"/>
@@ -1270,36 +1289,36 @@
   <autoFilter ref="B2:D17" xr:uid="{FC435E63-544A-4AF9-AB88-25485C06374F}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{03732734-128B-4A9B-94DE-63BA7A620E09}" name="Nome"/>
-    <tableColumn id="2" xr3:uid="{8A59554E-F717-491E-8132-4C8B0C0FEE55}" name="Ramal" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{6D6A91AC-1238-436F-AA49-B6A3E6488F5F}" name="Sala" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{8A59554E-F717-491E-8132-4C8B0C0FEE55}" name="Ramal" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{6D6A91AC-1238-436F-AA49-B6A3E6488F5F}" name="Sala" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8E917122-E55B-4051-9FE2-A991EDE06E17}" name="Tabela1" displayName="Tabela1" ref="B2:F31" totalsRowShown="0" headerRowDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8E917122-E55B-4051-9FE2-A991EDE06E17}" name="Tabela1" displayName="Tabela1" ref="B2:F31" totalsRowShown="0" headerRowDxfId="36">
   <autoFilter ref="B2:F31" xr:uid="{8E917122-E55B-4051-9FE2-A991EDE06E17}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{FD792877-62C3-4E4B-8F47-000AEAF79B06}" name="Nome do Laboratório"/>
     <tableColumn id="2" xr3:uid="{41F98F54-AE33-4121-A257-9961F5C88537}" name="Responsável"/>
-    <tableColumn id="3" xr3:uid="{BBBA9330-1EBC-4B1C-822C-FA7D1498519D}" name="Ramal" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{08A4FAA8-7022-48E8-AB45-59223A9CC820}" name="Sala" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{13F99FFC-D280-429A-B888-6F940A9B3EA7}" name="Prédio" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{BBBA9330-1EBC-4B1C-822C-FA7D1498519D}" name="Ramal" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{08A4FAA8-7022-48E8-AB45-59223A9CC820}" name="Sala" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{13F99FFC-D280-429A-B888-6F940A9B3EA7}" name="Prédio" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3B268247-6ED1-42D1-B9DF-5DC2A0E4DBCA}" name="Tabela2" displayName="Tabela2" ref="B2:F16" totalsRowShown="0" headerRowDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3B268247-6ED1-42D1-B9DF-5DC2A0E4DBCA}" name="Tabela2" displayName="Tabela2" ref="B2:F16" totalsRowShown="0" headerRowDxfId="32">
   <autoFilter ref="B2:F16" xr:uid="{3B268247-6ED1-42D1-B9DF-5DC2A0E4DBCA}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{BD4EBE2D-13FB-4EF2-9D85-1B7F740FC921}" name="Nome do Laboratório"/>
     <tableColumn id="2" xr3:uid="{B81D3F01-1E79-4E2A-9E6B-767A153C488E}" name="Responsável"/>
-    <tableColumn id="3" xr3:uid="{1372670B-E27F-43BE-B52A-84420746775C}" name="Ramal" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{1720B989-289B-4E43-84AD-FF7D6157EE4B}" name="Sala" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{B8373E7F-88A4-49A0-9FAF-C56634B2465A}" name="Prédio" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{1372670B-E27F-43BE-B52A-84420746775C}" name="Ramal" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{1720B989-289B-4E43-84AD-FF7D6157EE4B}" name="Sala" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{B8373E7F-88A4-49A0-9FAF-C56634B2465A}" name="Prédio" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1310,68 +1329,68 @@
   <autoFilter ref="B2:D62" xr:uid="{ABA35A86-E61D-465A-A1C6-EAC59B93E747}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{7A3A48C5-56DF-4B8E-800A-F8CC009514C4}" name="Nome"/>
-    <tableColumn id="2" xr3:uid="{35A3B9EC-26CB-42BD-8913-3D35ACD3A9F0}" name="Ramal" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{00B91669-7C2F-4F4C-B2D9-3FD8CC95C363}" name="Sala" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{35A3B9EC-26CB-42BD-8913-3D35ACD3A9F0}" name="Ramal" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{00B91669-7C2F-4F4C-B2D9-3FD8CC95C363}" name="Sala" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DC4DC68F-8959-46E5-9503-A6AE8C8638E1}" name="Tabela8" displayName="Tabela8" ref="B2:D33" totalsRowShown="0" headerRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DC4DC68F-8959-46E5-9503-A6AE8C8638E1}" name="Tabela8" displayName="Tabela8" ref="B2:D33" totalsRowShown="0" headerRowDxfId="26">
   <autoFilter ref="B2:D33" xr:uid="{DC4DC68F-8959-46E5-9503-A6AE8C8638E1}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{EDE970F4-91D7-49EF-B6D8-BA05EA40E131}" name="Nome"/>
-    <tableColumn id="2" xr3:uid="{12E81602-15CB-40FB-8F77-9C62AC7CE3EC}" name="Ramal" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{F3B61D0B-A90D-4378-B591-18C2A2CFB58F}" name="Sala" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{12E81602-15CB-40FB-8F77-9C62AC7CE3EC}" name="Ramal" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{F3B61D0B-A90D-4378-B591-18C2A2CFB58F}" name="Sala" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E61E7DEF-AD2B-47B3-88D2-90B310013E2B}" name="Tabela10" displayName="Tabela10" ref="B2:D7" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E61E7DEF-AD2B-47B3-88D2-90B310013E2B}" name="Tabela10" displayName="Tabela10" ref="B2:D7" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="B2:D7" xr:uid="{E61E7DEF-AD2B-47B3-88D2-90B310013E2B}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{BA73795E-FC7A-4FB6-B444-B3FF4E62F088}" name="DCC" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{B1FA6276-8B37-4136-A26A-931D6409BE40}" name="Ramais" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{8B5A8045-68DE-4257-9E6B-556AEE77200A}" name="Salas" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{BA73795E-FC7A-4FB6-B444-B3FF4E62F088}" name="DCC" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{B1FA6276-8B37-4136-A26A-931D6409BE40}" name="Ramais" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{8B5A8045-68DE-4257-9E6B-556AEE77200A}" name="Salas" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{FAFE467E-5DD3-492A-BEB9-150C6FB71208}" name="Tabela12" displayName="Tabela12" ref="B2:D21" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{FAFE467E-5DD3-492A-BEB9-150C6FB71208}" name="Tabela12" displayName="Tabela12" ref="B2:D21" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="B2:D21" xr:uid="{FAFE467E-5DD3-492A-BEB9-150C6FB71208}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0F384A33-A8EC-4D91-BC1D-68B90BA31A7D}" name="Local" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{C9346DD7-CF56-444A-80F7-16F4DEAC2E86}" name="Ramais" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{0FE6325D-095C-46D5-8ACF-A0394B353897}" name="Salas" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{0F384A33-A8EC-4D91-BC1D-68B90BA31A7D}" name="Local" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{C9346DD7-CF56-444A-80F7-16F4DEAC2E86}" name="Ramais" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{0FE6325D-095C-46D5-8ACF-A0394B353897}" name="Salas" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{0F157F8B-D3D2-4DCE-A348-BD65D0CB88B0}" name="Tabela14" displayName="Tabela14" ref="B2:D6" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{0F157F8B-D3D2-4DCE-A348-BD65D0CB88B0}" name="Tabela14" displayName="Tabela14" ref="B2:D6" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="B2:D6" xr:uid="{0F157F8B-D3D2-4DCE-A348-BD65D0CB88B0}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{04217724-9B53-4A04-8B75-70E3AD2FD289}" name="Departamento" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{59946A5F-539E-4A80-A572-1D09096A682D}" name="Ramal" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{286E36A4-74C4-4250-AD6B-311D7A192D37}" name="Sala" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{04217724-9B53-4A04-8B75-70E3AD2FD289}" name="Departamento" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{59946A5F-539E-4A80-A572-1D09096A682D}" name="Ramal" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{286E36A4-74C4-4250-AD6B-311D7A192D37}" name="Sala" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{EC1F50F5-0543-4509-B475-F903A861A0E9}" name="Tabela16" displayName="Tabela16" ref="B2:D8" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{EC1F50F5-0543-4509-B475-F903A861A0E9}" name="Tabela16" displayName="Tabela16" ref="B2:D8" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="B2:D8" xr:uid="{EC1F50F5-0543-4509-B475-F903A861A0E9}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{85557A97-C383-4EB2-97BC-AF45C37410F8}" name="Nome" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{E338F22D-1BF1-4AF8-9D41-7AE297A7A512}" name="Ramal" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{8B557187-6ED8-49B3-BC9B-2B9698A18435}" name="Sala" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{85557A97-C383-4EB2-97BC-AF45C37410F8}" name="Nome" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{E338F22D-1BF1-4AF8-9D41-7AE297A7A512}" name="Ramal" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{8B557187-6ED8-49B3-BC9B-2B9698A18435}" name="Sala" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1642,3592 +1661,3734 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C614248-534F-429C-9A98-D1F081278944}">
   <dimension ref="A1:K213"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.5546875" customWidth="1"/>
-    <col min="7" max="7" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="70.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="8.88671875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>19</v>
+      </c>
       <c r="B2" s="5">
+        <v>108</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5">
+        <v>5733</v>
+      </c>
+      <c r="E2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1002</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5">
+        <v>5801</v>
+      </c>
+      <c r="G3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1003</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5">
+        <v>5811</v>
+      </c>
+      <c r="G4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1034</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5">
+        <v>5593</v>
+      </c>
+      <c r="G5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1047</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5">
+        <v>5823</v>
+      </c>
+      <c r="G6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1048</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5">
+        <v>5823</v>
+      </c>
+      <c r="G7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2003</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5">
+        <v>5818</v>
+      </c>
+      <c r="G8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2004</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5">
+        <v>5812</v>
+      </c>
+      <c r="G9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2005</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5">
+        <v>5380</v>
+      </c>
+      <c r="G10" t="s">
+        <v>239</v>
+      </c>
+      <c r="H10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2005</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5">
+        <v>7547</v>
+      </c>
+      <c r="G11" t="s">
+        <v>235</v>
+      </c>
+      <c r="H11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2005</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5">
+        <v>5806</v>
+      </c>
+      <c r="G12" t="s">
+        <v>240</v>
+      </c>
+      <c r="H12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2011</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>226</v>
+      </c>
+      <c r="F13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2012</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>226</v>
+      </c>
+      <c r="F14" t="s">
+        <v>289</v>
+      </c>
+      <c r="G14" t="s">
+        <v>285</v>
+      </c>
+      <c r="H14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2017</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5">
+        <v>5859</v>
+      </c>
+      <c r="E15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="5">
+        <v>2017</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5">
+        <v>5859</v>
+      </c>
+      <c r="E16" t="s">
+        <v>226</v>
+      </c>
+      <c r="F16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" t="s">
+        <v>286</v>
+      </c>
+      <c r="H16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="5">
+        <v>2017</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5">
+        <v>5859</v>
+      </c>
+      <c r="E17" t="s">
+        <v>228</v>
+      </c>
+      <c r="H17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="5">
+        <v>2017</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5">
+        <v>5859</v>
+      </c>
+      <c r="E18" t="s">
+        <v>228</v>
+      </c>
+      <c r="H18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="5">
+        <v>2017</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5">
+        <v>5859</v>
+      </c>
+      <c r="E19" t="s">
+        <v>228</v>
+      </c>
+      <c r="H19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5">
+        <v>5859</v>
+      </c>
+      <c r="E20" t="s">
+        <v>226</v>
+      </c>
+      <c r="F20" t="s">
+        <v>136</v>
+      </c>
+      <c r="G20" t="s">
+        <v>286</v>
+      </c>
+      <c r="H20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5">
+        <v>2019</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" t="s">
+        <v>226</v>
+      </c>
+      <c r="F21" t="s">
+        <v>136</v>
+      </c>
+      <c r="G21" t="s">
+        <v>291</v>
+      </c>
+      <c r="H21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="5">
+        <v>2020</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" t="s">
+        <v>226</v>
+      </c>
+      <c r="F22" t="s">
+        <v>136</v>
+      </c>
+      <c r="G22" t="s">
+        <v>291</v>
+      </c>
+      <c r="H22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="5">
+        <v>2021</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" t="s">
+        <v>226</v>
+      </c>
+      <c r="F23" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" t="s">
+        <v>292</v>
+      </c>
+      <c r="H23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="5">
+        <v>2022</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" t="s">
+        <v>226</v>
+      </c>
+      <c r="F24" t="s">
+        <v>136</v>
+      </c>
+      <c r="G24" t="s">
+        <v>293</v>
+      </c>
+      <c r="H24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" t="s">
+        <v>226</v>
+      </c>
+      <c r="F25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G25" t="s">
+        <v>284</v>
+      </c>
+      <c r="H25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="5">
+        <v>2040</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5">
+        <v>5393</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="5">
+        <v>2301</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5">
+        <v>5842</v>
+      </c>
+      <c r="E27" t="s">
+        <v>225</v>
+      </c>
+      <c r="F27" t="s">
+        <v>242</v>
+      </c>
+      <c r="G27" t="s">
+        <v>265</v>
+      </c>
+      <c r="H27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="5">
+        <v>2302</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5">
+        <v>1478</v>
+      </c>
+      <c r="E28" t="s">
+        <v>225</v>
+      </c>
+      <c r="F28" t="s">
+        <v>243</v>
+      </c>
+      <c r="G28" t="s">
+        <v>266</v>
+      </c>
+      <c r="H28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="5">
+        <v>2303</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5">
+        <v>5843</v>
+      </c>
+      <c r="E29" t="s">
+        <v>225</v>
+      </c>
+      <c r="F29" t="s">
+        <v>243</v>
+      </c>
+      <c r="G29" t="s">
+        <v>266</v>
+      </c>
+      <c r="H29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="5">
+        <v>2309</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5">
+        <v>5839</v>
+      </c>
+      <c r="E30" t="s">
+        <v>225</v>
+      </c>
+      <c r="F30" t="s">
+        <v>244</v>
+      </c>
+      <c r="G30" t="s">
+        <v>267</v>
+      </c>
+      <c r="H30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="5">
+        <v>2310</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5">
+        <v>1477</v>
+      </c>
+      <c r="E31" t="s">
+        <v>225</v>
+      </c>
+      <c r="F31" t="s">
+        <v>245</v>
+      </c>
+      <c r="G31" t="s">
+        <v>268</v>
+      </c>
+      <c r="H31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="5">
+        <v>2311</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5">
+        <v>1476</v>
+      </c>
+      <c r="E32" t="s">
+        <v>225</v>
+      </c>
+      <c r="F32" t="s">
+        <v>245</v>
+      </c>
+      <c r="G32" t="s">
+        <v>268</v>
+      </c>
+      <c r="H32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="5">
+        <v>2312</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5">
+        <v>1475</v>
+      </c>
+      <c r="E33" t="s">
+        <v>225</v>
+      </c>
+      <c r="F33" t="s">
+        <v>246</v>
+      </c>
+      <c r="G33" t="s">
+        <v>269</v>
+      </c>
+      <c r="H33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="5">
+        <v>2313</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5">
+        <v>1474</v>
+      </c>
+      <c r="E34" t="s">
+        <v>225</v>
+      </c>
+      <c r="F34" t="s">
+        <v>246</v>
+      </c>
+      <c r="G34" t="s">
+        <v>269</v>
+      </c>
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="5">
+        <v>2314</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5">
+        <v>1473</v>
+      </c>
+      <c r="E35" t="s">
+        <v>225</v>
+      </c>
+      <c r="F35" t="s">
+        <v>247</v>
+      </c>
+      <c r="G35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="5">
+        <v>2315</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5">
+        <v>5856</v>
+      </c>
+      <c r="E36" t="s">
+        <v>225</v>
+      </c>
+      <c r="F36" t="s">
+        <v>247</v>
+      </c>
+      <c r="G36" t="s">
+        <v>270</v>
+      </c>
+      <c r="H36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="5">
+        <v>2315</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5">
+        <v>5856</v>
+      </c>
+      <c r="E37" t="s">
+        <v>228</v>
+      </c>
+      <c r="H37" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="5">
+        <v>2321</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5">
+        <v>5590</v>
+      </c>
+      <c r="E38" t="s">
+        <v>225</v>
+      </c>
+      <c r="F38" t="s">
+        <v>244</v>
+      </c>
+      <c r="G38" t="s">
+        <v>271</v>
+      </c>
+      <c r="H38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="5">
+        <v>3001</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5">
+        <v>5570</v>
+      </c>
+      <c r="E39" t="s">
+        <v>133</v>
+      </c>
+      <c r="G39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="5">
+        <v>3001</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5">
+        <v>5570</v>
+      </c>
+      <c r="E40" t="s">
+        <v>226</v>
+      </c>
+      <c r="F40" t="s">
+        <v>264</v>
+      </c>
+      <c r="G40" t="s">
+        <v>261</v>
+      </c>
+      <c r="H40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="5">
+        <v>3001</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5">
+        <v>5570</v>
+      </c>
+      <c r="E41" t="s">
+        <v>226</v>
+      </c>
+      <c r="F41" t="s">
+        <v>264</v>
+      </c>
+      <c r="G41" t="s">
+        <v>261</v>
+      </c>
+      <c r="H41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="5">
+        <v>3001</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5">
+        <v>5583</v>
+      </c>
+      <c r="E42" t="s">
+        <v>228</v>
+      </c>
+      <c r="H42" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B43" s="5">
+        <v>3001</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5">
+        <v>5829</v>
+      </c>
+      <c r="E43" t="s">
+        <v>228</v>
+      </c>
+      <c r="H43" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B44" s="5">
+        <v>3001</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5">
+        <v>5829</v>
+      </c>
+      <c r="E44" t="s">
+        <v>228</v>
+      </c>
+      <c r="H44" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B45" s="5">
+        <v>3001</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5">
+        <v>5578</v>
+      </c>
+      <c r="E45" t="s">
+        <v>228</v>
+      </c>
+      <c r="H45" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B46" s="5">
+        <v>3001</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5">
+        <v>5383</v>
+      </c>
+      <c r="E46" t="s">
+        <v>228</v>
+      </c>
+      <c r="H46" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="5">
+        <v>3001</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5">
+        <v>5577</v>
+      </c>
+      <c r="E47" t="s">
+        <v>228</v>
+      </c>
+      <c r="H47" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B48" s="5">
+        <v>3002</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5">
+        <v>5817</v>
+      </c>
+      <c r="E48" t="s">
+        <v>228</v>
+      </c>
+      <c r="H48" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B49" s="5">
+        <v>3002</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5">
+        <v>5817</v>
+      </c>
+      <c r="E49" t="s">
+        <v>228</v>
+      </c>
+      <c r="H49" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" s="5">
+        <v>3003</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5">
+        <v>5765</v>
+      </c>
+      <c r="E50" t="s">
+        <v>225</v>
+      </c>
+      <c r="F50" t="s">
+        <v>263</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="5">
+        <v>3004</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" s="5">
+        <v>3005</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E52" t="s">
+        <v>225</v>
+      </c>
+      <c r="F52" t="s">
+        <v>288</v>
+      </c>
+      <c r="G52" t="s">
+        <v>48</v>
+      </c>
+      <c r="H52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" s="5">
+        <v>3006</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E53" t="s">
+        <v>226</v>
+      </c>
+      <c r="G53" t="s">
+        <v>70</v>
+      </c>
+      <c r="H53" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="5">
+        <v>3007</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5">
+        <v>5571</v>
+      </c>
+      <c r="E54" t="s">
+        <v>226</v>
+      </c>
+      <c r="G54" t="s">
+        <v>287</v>
+      </c>
+      <c r="H54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B55" s="5">
+        <v>3007</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5">
+        <v>5571</v>
+      </c>
+      <c r="E55" t="s">
+        <v>228</v>
+      </c>
+      <c r="H55" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" s="5">
+        <v>3009</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D56" s="5">
+        <v>5855</v>
+      </c>
+      <c r="E56" t="s">
+        <v>226</v>
+      </c>
+      <c r="F56" t="s">
+        <v>262</v>
+      </c>
+      <c r="G56" t="s">
+        <v>84</v>
+      </c>
+      <c r="H56" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="5">
+        <v>3009</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D57" s="5">
+        <v>7596</v>
+      </c>
+      <c r="E57" t="s">
+        <v>225</v>
+      </c>
+      <c r="G57" t="s">
+        <v>272</v>
+      </c>
+      <c r="H57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" s="5">
+        <v>3009</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D58" s="5">
+        <v>5693</v>
+      </c>
+      <c r="E58" t="s">
+        <v>225</v>
+      </c>
+      <c r="G58" t="s">
+        <v>272</v>
+      </c>
+      <c r="H58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" s="5">
+        <v>3011</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5">
+        <v>5588</v>
+      </c>
+      <c r="E59" t="s">
+        <v>226</v>
+      </c>
+      <c r="F59" t="s">
+        <v>262</v>
+      </c>
+      <c r="G59" t="s">
+        <v>84</v>
+      </c>
+      <c r="H59" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" s="5">
+        <v>3011</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5">
+        <v>5575</v>
+      </c>
+      <c r="E60" t="s">
+        <v>225</v>
+      </c>
+      <c r="F60" t="s">
+        <v>248</v>
+      </c>
+      <c r="G60" t="s">
+        <v>273</v>
+      </c>
+      <c r="H60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" s="5">
+        <v>3012</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5">
+        <v>5866</v>
+      </c>
+      <c r="E61" t="s">
+        <v>226</v>
+      </c>
+      <c r="F61" t="s">
+        <v>262</v>
+      </c>
+      <c r="G61" t="s">
+        <v>84</v>
+      </c>
+      <c r="H61" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B62" s="5">
+        <v>3013</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E62" t="s">
+        <v>226</v>
+      </c>
+      <c r="F62" t="s">
+        <v>262</v>
+      </c>
+      <c r="G62" t="s">
+        <v>84</v>
+      </c>
+      <c r="H62" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63" s="5">
+        <v>3014</v>
+      </c>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5">
+        <v>5569</v>
+      </c>
+      <c r="E63" t="s">
+        <v>226</v>
+      </c>
+      <c r="F63" t="s">
+        <v>262</v>
+      </c>
+      <c r="G63" t="s">
+        <v>84</v>
+      </c>
+      <c r="H63" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64" s="5">
+        <v>3014</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5">
+        <v>5565</v>
+      </c>
+      <c r="E64" t="s">
+        <v>226</v>
+      </c>
+      <c r="F64" t="s">
+        <v>262</v>
+      </c>
+      <c r="G64" t="s">
+        <v>84</v>
+      </c>
+      <c r="H64" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B65" s="5">
+        <v>3015</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5">
+        <v>5572</v>
+      </c>
+      <c r="E65" t="s">
+        <v>226</v>
+      </c>
+      <c r="F65" t="s">
+        <v>262</v>
+      </c>
+      <c r="G65" t="s">
+        <v>84</v>
+      </c>
+      <c r="H65" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B66" s="5">
+        <v>3015</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5">
+        <v>5837</v>
+      </c>
+      <c r="E66" t="s">
+        <v>226</v>
+      </c>
+      <c r="F66" t="s">
+        <v>262</v>
+      </c>
+      <c r="G66" t="s">
+        <v>84</v>
+      </c>
+      <c r="H66" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" s="5">
+        <v>3117</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5">
+        <v>5805</v>
+      </c>
+      <c r="E67" t="s">
+        <v>19</v>
+      </c>
+      <c r="G67" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68" s="5">
+        <v>3118</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5">
+        <v>5822</v>
+      </c>
+      <c r="E68" t="s">
+        <v>19</v>
+      </c>
+      <c r="G68" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" s="5">
+        <v>3119</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5">
+        <v>5807</v>
+      </c>
+      <c r="E69" t="s">
+        <v>19</v>
+      </c>
+      <c r="G69" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70" s="5">
+        <v>3124</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5">
+        <v>5564</v>
+      </c>
+      <c r="E70" t="s">
+        <v>19</v>
+      </c>
+      <c r="G70" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="5">
+        <v>3301</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5">
+        <v>5863</v>
+      </c>
+      <c r="E71" t="s">
+        <v>225</v>
+      </c>
+      <c r="F71" t="s">
+        <v>249</v>
+      </c>
+      <c r="G71" t="s">
+        <v>27</v>
+      </c>
+      <c r="H71" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="5">
+        <v>3302</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5">
+        <v>1481</v>
+      </c>
+      <c r="E72" t="s">
+        <v>225</v>
+      </c>
+      <c r="F72" t="s">
+        <v>249</v>
+      </c>
+      <c r="G72" t="s">
+        <v>27</v>
+      </c>
+      <c r="H72" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="5">
+        <v>3303</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="G73" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="5">
+        <v>3304</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="G74" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="5">
+        <v>3305</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="G75" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" s="5">
+        <v>3306</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="G76" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="5">
+        <v>3307</v>
+      </c>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="G77" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" s="5">
+        <v>3308</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="G78" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="5">
+        <v>3309</v>
+      </c>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5">
+        <v>1480</v>
+      </c>
+      <c r="E79" t="s">
+        <v>225</v>
+      </c>
+      <c r="F79" t="s">
+        <v>250</v>
+      </c>
+      <c r="G79" t="s">
+        <v>274</v>
+      </c>
+      <c r="H79" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" s="5">
+        <v>3310</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5">
+        <v>5854</v>
+      </c>
+      <c r="E80" t="s">
+        <v>225</v>
+      </c>
+      <c r="F80" t="s">
+        <v>251</v>
+      </c>
+      <c r="G80" t="s">
+        <v>275</v>
+      </c>
+      <c r="H80" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B81" s="5">
+        <v>3310</v>
+      </c>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5">
+        <v>5854</v>
+      </c>
+      <c r="E81" t="s">
+        <v>228</v>
+      </c>
+      <c r="H81" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="5">
+        <v>3311</v>
+      </c>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5">
+        <v>5851</v>
+      </c>
+      <c r="E82" t="s">
+        <v>225</v>
+      </c>
+      <c r="F82" t="s">
+        <v>252</v>
+      </c>
+      <c r="G82" t="s">
+        <v>276</v>
+      </c>
+      <c r="H82" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="5">
+        <v>3312</v>
+      </c>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5">
+        <v>5833</v>
+      </c>
+      <c r="E83" t="s">
+        <v>225</v>
+      </c>
+      <c r="F83" t="s">
+        <v>253</v>
+      </c>
+      <c r="G83" t="s">
+        <v>277</v>
+      </c>
+      <c r="H83" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="5">
+        <v>3313</v>
+      </c>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5">
+        <v>1479</v>
+      </c>
+      <c r="E84" t="s">
+        <v>225</v>
+      </c>
+      <c r="F84" t="s">
+        <v>254</v>
+      </c>
+      <c r="G84" t="s">
+        <v>278</v>
+      </c>
+      <c r="H84" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="5">
+        <v>3319</v>
+      </c>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5">
+        <v>7561</v>
+      </c>
+      <c r="E85" t="s">
+        <v>225</v>
+      </c>
+      <c r="F85" t="s">
+        <v>33</v>
+      </c>
+      <c r="G85" t="s">
+        <v>33</v>
+      </c>
+      <c r="H85" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="5">
+        <v>3320</v>
+      </c>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5">
+        <v>7562</v>
+      </c>
+      <c r="E86" t="s">
+        <v>225</v>
+      </c>
+      <c r="F86" t="s">
+        <v>33</v>
+      </c>
+      <c r="G86" t="s">
+        <v>33</v>
+      </c>
+      <c r="H86" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="5">
+        <v>3321</v>
+      </c>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5">
+        <v>7563</v>
+      </c>
+      <c r="E87" t="s">
+        <v>225</v>
+      </c>
+      <c r="F87" t="s">
+        <v>33</v>
+      </c>
+      <c r="G87" t="s">
+        <v>33</v>
+      </c>
+      <c r="H87" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="5">
+        <v>3322</v>
+      </c>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5">
+        <v>7564</v>
+      </c>
+      <c r="E88" t="s">
+        <v>225</v>
+      </c>
+      <c r="F88" t="s">
+        <v>33</v>
+      </c>
+      <c r="G88" t="s">
+        <v>33</v>
+      </c>
+      <c r="H88" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B89" s="5">
+        <v>4003</v>
+      </c>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5">
+        <v>5970</v>
+      </c>
+      <c r="E89" t="s">
+        <v>229</v>
+      </c>
+      <c r="G89" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B90" s="5">
+        <v>4054</v>
+      </c>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5">
+        <v>5900</v>
+      </c>
+      <c r="E90" t="s">
+        <v>229</v>
+      </c>
+      <c r="G90" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B91" s="5">
+        <v>4114</v>
+      </c>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5">
+        <v>5620</v>
+      </c>
+      <c r="E91" t="s">
+        <v>229</v>
+      </c>
+      <c r="G91" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B92" s="5">
+        <v>4222</v>
+      </c>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5">
+        <v>5802</v>
+      </c>
+      <c r="E92" t="s">
+        <v>19</v>
+      </c>
+      <c r="G92" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="5">
+        <v>4301</v>
+      </c>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="G93" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="5">
+        <v>4302</v>
+      </c>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5">
+        <v>5575</v>
+      </c>
+      <c r="E94" t="s">
+        <v>225</v>
+      </c>
+      <c r="F94" t="s">
+        <v>301</v>
+      </c>
+      <c r="G94" t="s">
+        <v>302</v>
+      </c>
+      <c r="H94" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="5">
+        <v>4303</v>
+      </c>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5">
+        <v>1495</v>
+      </c>
+      <c r="E95" t="s">
+        <v>225</v>
+      </c>
+      <c r="F95" t="s">
+        <v>303</v>
+      </c>
+      <c r="G95" t="s">
+        <v>304</v>
+      </c>
+      <c r="H95" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="5">
+        <v>4303</v>
+      </c>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5">
+        <v>1495</v>
+      </c>
+      <c r="E96" t="s">
+        <v>225</v>
+      </c>
+      <c r="F96" t="s">
+        <v>255</v>
+      </c>
+      <c r="G96" t="s">
+        <v>279</v>
+      </c>
+      <c r="H96" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="5">
+        <v>4304</v>
+      </c>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5">
+        <v>5848</v>
+      </c>
+      <c r="E97" t="s">
+        <v>225</v>
+      </c>
+      <c r="F97" t="s">
+        <v>256</v>
+      </c>
+      <c r="G97" t="s">
+        <v>280</v>
+      </c>
+      <c r="H97" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="5">
+        <v>4305</v>
+      </c>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="G98" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="5">
+        <v>4306</v>
+      </c>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="G99" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="5">
+        <v>4307</v>
+      </c>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="G100" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="5">
+        <v>4308</v>
+      </c>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="G101" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="5">
+        <v>4309</v>
+      </c>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="G102" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B103" s="5">
+        <v>4310</v>
+      </c>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5">
+        <v>7589</v>
+      </c>
+      <c r="E103" t="s">
+        <v>227</v>
+      </c>
+      <c r="H103" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B104" s="5">
+        <v>4311</v>
+      </c>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5">
+        <v>5878</v>
+      </c>
+      <c r="E104" t="s">
+        <v>227</v>
+      </c>
+      <c r="H104" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B105" s="5">
+        <v>4312</v>
+      </c>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5">
+        <v>5876</v>
+      </c>
+      <c r="E105" t="s">
+        <v>227</v>
+      </c>
+      <c r="H105" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B106" s="5">
+        <v>4313</v>
+      </c>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5">
+        <v>1486</v>
+      </c>
+      <c r="E106" t="s">
+        <v>227</v>
+      </c>
+      <c r="H106" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B107" s="5">
+        <v>4314</v>
+      </c>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5">
+        <v>6579</v>
+      </c>
+      <c r="E107" t="s">
+        <v>227</v>
+      </c>
+      <c r="H107" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B108" s="5">
+        <v>4316</v>
+      </c>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5">
+        <v>6578</v>
+      </c>
+      <c r="E108" t="s">
+        <v>227</v>
+      </c>
+      <c r="H108" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B109" s="5">
+        <v>4317</v>
+      </c>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5">
+        <v>5845</v>
+      </c>
+      <c r="E109" t="s">
+        <v>227</v>
+      </c>
+      <c r="H109" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B110" s="5">
+        <v>4318</v>
+      </c>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5">
+        <v>5897</v>
+      </c>
+      <c r="E110" t="s">
+        <v>231</v>
+      </c>
+      <c r="H110" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B111" s="5">
+        <v>4319</v>
+      </c>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5">
+        <v>5899</v>
+      </c>
+      <c r="E111" t="s">
+        <v>231</v>
+      </c>
+      <c r="H111" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B112" s="5">
+        <v>4320</v>
+      </c>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5">
+        <v>1482</v>
+      </c>
+      <c r="E112" t="s">
+        <v>227</v>
+      </c>
+      <c r="H112" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B113" s="5">
+        <v>4321</v>
+      </c>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5">
+        <v>7542</v>
+      </c>
+      <c r="E113" t="s">
+        <v>227</v>
+      </c>
+      <c r="H113" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B114" s="5">
+        <v>4322</v>
+      </c>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5">
+        <v>5869</v>
+      </c>
+      <c r="E114" t="s">
+        <v>227</v>
+      </c>
+      <c r="H114" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B115" s="5">
+        <v>4323</v>
+      </c>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5">
+        <v>5852</v>
+      </c>
+      <c r="E115" t="s">
+        <v>227</v>
+      </c>
+      <c r="H115" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B116" s="5">
         <v>4327</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" t="s">
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" t="s">
         <v>230</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H116" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B117" s="5">
         <v>4327</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" t="s">
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" t="s">
         <v>230</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H117" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B118" s="5">
+        <v>4327</v>
+      </c>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" t="s">
+        <v>230</v>
+      </c>
+      <c r="H118" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B119" s="5">
+        <v>4327</v>
+      </c>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" t="s">
+        <v>230</v>
+      </c>
+      <c r="H119" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B120" s="5">
+        <v>4327</v>
+      </c>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" t="s">
+        <v>230</v>
+      </c>
+      <c r="H120" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B121" s="5">
+        <v>4329</v>
+      </c>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5">
+        <v>1488</v>
+      </c>
+      <c r="E121" t="s">
+        <v>227</v>
+      </c>
+      <c r="H121" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B122" s="5">
+        <v>4330</v>
+      </c>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5">
+        <v>1485</v>
+      </c>
+      <c r="E122" t="s">
+        <v>227</v>
+      </c>
+      <c r="H122" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B123" s="5">
+        <v>4331</v>
+      </c>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5">
+        <v>1489</v>
+      </c>
+      <c r="E123" t="s">
+        <v>227</v>
+      </c>
+      <c r="H123" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B124" s="5">
+        <v>4332</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D124" s="5">
+        <v>5858</v>
+      </c>
+      <c r="E124" t="s">
+        <v>227</v>
+      </c>
+      <c r="H124" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B125" s="5">
+        <v>4333</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D125" s="5">
+        <v>5857</v>
+      </c>
+      <c r="E125" t="s">
+        <v>227</v>
+      </c>
+      <c r="H125" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B126" s="5">
+        <v>4334</v>
+      </c>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5">
+        <v>5835</v>
+      </c>
+      <c r="E126" t="s">
+        <v>227</v>
+      </c>
+      <c r="H126" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B127" s="5">
+        <v>4335</v>
+      </c>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5">
+        <v>7586</v>
+      </c>
+      <c r="E127" t="s">
+        <v>227</v>
+      </c>
+      <c r="H127" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B128" s="5">
+        <v>4336</v>
+      </c>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5">
+        <v>5571</v>
+      </c>
+      <c r="E128" t="s">
+        <v>228</v>
+      </c>
+      <c r="H128" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B129" s="5">
+        <v>4336</v>
+      </c>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5">
+        <v>5571</v>
+      </c>
+      <c r="E129" t="s">
+        <v>228</v>
+      </c>
+      <c r="H129" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B130" s="5">
+        <v>4336</v>
+      </c>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5">
+        <v>1469</v>
+      </c>
+      <c r="E130" t="s">
+        <v>227</v>
+      </c>
+      <c r="H130" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B131" s="5">
+        <v>4337</v>
+      </c>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5">
+        <v>1483</v>
+      </c>
+      <c r="E131" t="s">
+        <v>227</v>
+      </c>
+      <c r="H131" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132" s="5">
+        <v>4339</v>
+      </c>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5">
+        <v>5832</v>
+      </c>
+      <c r="E132" t="s">
+        <v>225</v>
+      </c>
+      <c r="F132" t="s">
+        <v>257</v>
+      </c>
+      <c r="G132" t="s">
+        <v>36</v>
+      </c>
+      <c r="H132" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133" s="5">
+        <v>4340</v>
+      </c>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5">
+        <v>5896</v>
+      </c>
+      <c r="E133" t="s">
+        <v>225</v>
+      </c>
+      <c r="F133" t="s">
+        <v>258</v>
+      </c>
+      <c r="G133" t="s">
+        <v>281</v>
+      </c>
+      <c r="H133" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" s="5">
+        <v>4341</v>
+      </c>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5">
+        <v>5850</v>
+      </c>
+      <c r="E134" t="s">
+        <v>225</v>
+      </c>
+      <c r="F134" t="s">
+        <v>259</v>
+      </c>
+      <c r="G134" t="s">
+        <v>282</v>
+      </c>
+      <c r="H134" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" s="5">
+        <v>4342</v>
+      </c>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5">
+        <v>5566</v>
+      </c>
+      <c r="E135" t="s">
+        <v>225</v>
+      </c>
+      <c r="F135" t="s">
+        <v>260</v>
+      </c>
+      <c r="G135" t="s">
+        <v>283</v>
+      </c>
+      <c r="H135" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" s="5">
+        <v>5308</v>
+      </c>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5">
+        <v>5830</v>
+      </c>
+      <c r="E136" t="s">
+        <v>133</v>
+      </c>
+      <c r="G136" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137" s="5">
+        <v>5309</v>
+      </c>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5">
+        <v>5860</v>
+      </c>
+      <c r="E137" t="s">
+        <v>133</v>
+      </c>
+      <c r="G137" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" s="5">
+        <v>5309</v>
+      </c>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5">
+        <v>5861</v>
+      </c>
+      <c r="E138" t="s">
+        <v>133</v>
+      </c>
+      <c r="G138" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B139" s="5">
+        <v>5309</v>
+      </c>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5">
+        <v>5567</v>
+      </c>
+      <c r="E139" t="s">
+        <v>228</v>
+      </c>
+      <c r="H139" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B140" s="5">
+        <v>5309</v>
+      </c>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5">
+        <v>5911</v>
+      </c>
+      <c r="E140" t="s">
+        <v>228</v>
+      </c>
+      <c r="H140" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B141" s="5">
+        <v>5309</v>
+      </c>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5">
+        <v>5580</v>
+      </c>
+      <c r="E141" t="s">
+        <v>228</v>
+      </c>
+      <c r="H141" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B142" s="5">
+        <v>5309</v>
+      </c>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5">
+        <v>5865</v>
+      </c>
+      <c r="E142" t="s">
+        <v>228</v>
+      </c>
+      <c r="H142" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B143" s="5">
+        <v>5309</v>
+      </c>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5">
+        <v>5861</v>
+      </c>
+      <c r="E143" t="s">
+        <v>228</v>
+      </c>
+      <c r="H143" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B144" s="5">
+        <v>5309</v>
+      </c>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5">
+        <v>5595</v>
+      </c>
+      <c r="E144" t="s">
+        <v>228</v>
+      </c>
+      <c r="H144" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B145" s="5">
+        <v>5309</v>
+      </c>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5">
+        <v>5568</v>
+      </c>
+      <c r="E145" t="s">
+        <v>228</v>
+      </c>
+      <c r="H145" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="146" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B146" s="5">
+        <v>5309</v>
+      </c>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5">
+        <v>5907</v>
+      </c>
+      <c r="E146" t="s">
+        <v>228</v>
+      </c>
+      <c r="H146" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B147" s="5">
+        <v>5309</v>
+      </c>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5">
+        <v>7540</v>
+      </c>
+      <c r="E147" t="s">
+        <v>228</v>
+      </c>
+      <c r="H147" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B148" s="5">
+        <v>5309</v>
+      </c>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5">
+        <v>5860</v>
+      </c>
+      <c r="E148" t="s">
+        <v>228</v>
+      </c>
+      <c r="H148" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B149" s="5">
+        <v>5309</v>
+      </c>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5">
+        <v>5853</v>
+      </c>
+      <c r="E149" t="s">
+        <v>228</v>
+      </c>
+      <c r="H149" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="150" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B150" s="5">
+        <v>5309</v>
+      </c>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5">
+        <v>5831</v>
+      </c>
+      <c r="E150" t="s">
+        <v>228</v>
+      </c>
+      <c r="H150" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B151" s="5">
+        <v>5309</v>
+      </c>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5">
+        <v>5838</v>
+      </c>
+      <c r="E151" t="s">
+        <v>228</v>
+      </c>
+      <c r="H151" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="152" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B152" s="5">
+        <v>5311</v>
+      </c>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5">
+        <v>5841</v>
+      </c>
+      <c r="E152" t="s">
+        <v>228</v>
+      </c>
+      <c r="H152" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="153" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B153" s="5">
+        <v>6306</v>
+      </c>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5">
+        <v>5877</v>
+      </c>
+      <c r="E153" t="s">
+        <v>227</v>
+      </c>
+      <c r="H153" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="154" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B154" s="5">
+        <v>6307</v>
+      </c>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5">
+        <v>5874</v>
+      </c>
+      <c r="E154" t="s">
+        <v>227</v>
+      </c>
+      <c r="H154" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="155" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B155" s="5">
+        <v>6308</v>
+      </c>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5">
+        <v>7533</v>
+      </c>
+      <c r="E155" t="s">
+        <v>227</v>
+      </c>
+      <c r="H155" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="156" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B156" s="5">
+        <v>6309</v>
+      </c>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5">
+        <v>5864</v>
+      </c>
+      <c r="E156" t="s">
+        <v>227</v>
+      </c>
+      <c r="H156" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="157" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B157" s="5">
+        <v>6310</v>
+      </c>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5">
+        <v>5586</v>
+      </c>
+      <c r="E157" t="s">
+        <v>227</v>
+      </c>
+      <c r="H157" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="158" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B158" s="5">
+        <v>6311</v>
+      </c>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5">
+        <v>5895</v>
+      </c>
+      <c r="E158" t="s">
+        <v>227</v>
+      </c>
+      <c r="H158" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="159" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B159" s="5">
+        <v>6312</v>
+      </c>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5">
+        <v>7587</v>
+      </c>
+      <c r="E159" t="s">
+        <v>227</v>
+      </c>
+      <c r="H159" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="160" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B160" s="5">
+        <v>6313</v>
+      </c>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5">
+        <v>7541</v>
+      </c>
+      <c r="E160" t="s">
+        <v>227</v>
+      </c>
+      <c r="H160" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B161" s="5">
+        <v>6314</v>
+      </c>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5">
+        <v>5881</v>
+      </c>
+      <c r="E161" t="s">
+        <v>227</v>
+      </c>
+      <c r="H161" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B162" s="5">
+        <v>6315</v>
+      </c>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5">
+        <v>7584</v>
+      </c>
+      <c r="E162" t="s">
+        <v>227</v>
+      </c>
+      <c r="H162" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B163" s="5">
+        <v>6316</v>
+      </c>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5">
+        <v>5594</v>
+      </c>
+      <c r="E163" t="s">
+        <v>227</v>
+      </c>
+      <c r="H163" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B164" s="5">
+        <v>6317</v>
+      </c>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5">
+        <v>5836</v>
+      </c>
+      <c r="E164" t="s">
+        <v>227</v>
+      </c>
+      <c r="H164" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B165" s="5">
+        <v>6318</v>
+      </c>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5">
+        <v>7597</v>
+      </c>
+      <c r="E165" t="s">
+        <v>227</v>
+      </c>
+      <c r="H165" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B166" s="5">
+        <v>6319</v>
+      </c>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5">
+        <v>7535</v>
+      </c>
+      <c r="E166" t="s">
+        <v>227</v>
+      </c>
+      <c r="H166" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B167" s="5">
+        <v>6320</v>
+      </c>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5">
+        <v>7583</v>
+      </c>
+      <c r="E167" t="s">
+        <v>227</v>
+      </c>
+      <c r="H167" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B168" s="5">
+        <v>6322</v>
+      </c>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5">
+        <v>5849</v>
+      </c>
+      <c r="E168" t="s">
+        <v>227</v>
+      </c>
+      <c r="H168" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B169" s="5">
+        <v>6323</v>
+      </c>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5">
+        <v>5870</v>
+      </c>
+      <c r="E169" t="s">
+        <v>227</v>
+      </c>
+      <c r="H169" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B170" s="5">
+        <v>6324</v>
+      </c>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5">
+        <v>7590</v>
+      </c>
+      <c r="E170" t="s">
+        <v>227</v>
+      </c>
+      <c r="H170" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="171" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B171" s="5">
+        <v>6325</v>
+      </c>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5">
+        <v>7599</v>
+      </c>
+      <c r="E171" t="s">
+        <v>227</v>
+      </c>
+      <c r="H171" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="172" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B172" s="5">
+        <v>6326</v>
+      </c>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5">
+        <v>7538</v>
+      </c>
+      <c r="E172" t="s">
+        <v>227</v>
+      </c>
+      <c r="H172" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B173" s="5">
+        <v>6327</v>
+      </c>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5">
+        <v>7536</v>
+      </c>
+      <c r="E173" t="s">
+        <v>227</v>
+      </c>
+      <c r="H173" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="174" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B174" s="5">
+        <v>6328</v>
+      </c>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5">
+        <v>5883</v>
+      </c>
+      <c r="E174" t="s">
+        <v>227</v>
+      </c>
+      <c r="H174" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="175" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B175" s="5">
+        <v>6329</v>
+      </c>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5">
+        <v>7534</v>
+      </c>
+      <c r="E175" t="s">
+        <v>227</v>
+      </c>
+      <c r="H175" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="176" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B176" s="5">
+        <v>6330</v>
+      </c>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5">
+        <v>7588</v>
+      </c>
+      <c r="E176" t="s">
+        <v>227</v>
+      </c>
+      <c r="H176" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="177" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B177" s="5">
+        <v>6331</v>
+      </c>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5">
+        <v>7539</v>
+      </c>
+      <c r="E177" t="s">
+        <v>227</v>
+      </c>
+      <c r="H177" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="178" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B178" s="5">
+        <v>6332</v>
+      </c>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5">
+        <v>5890</v>
+      </c>
+      <c r="E178" t="s">
+        <v>231</v>
+      </c>
+      <c r="H178" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B179" s="5">
+        <v>6333</v>
+      </c>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5">
+        <v>5872</v>
+      </c>
+      <c r="E179" t="s">
+        <v>227</v>
+      </c>
+      <c r="H179" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B180" s="5">
+        <v>7306</v>
+      </c>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5">
+        <v>5868</v>
+      </c>
+      <c r="E180" t="s">
+        <v>231</v>
+      </c>
+      <c r="H180" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="181" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B181" s="5">
+        <v>7307</v>
+      </c>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5">
+        <v>5880</v>
+      </c>
+      <c r="E181" t="s">
+        <v>231</v>
+      </c>
+      <c r="H181" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B182" s="5">
+        <v>7308</v>
+      </c>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5">
+        <v>5867</v>
+      </c>
+      <c r="E182" t="s">
+        <v>227</v>
+      </c>
+      <c r="H182" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B183" s="5">
+        <v>7309</v>
+      </c>
+      <c r="C183" s="5"/>
+      <c r="D183" s="5">
+        <v>5898</v>
+      </c>
+      <c r="E183" t="s">
+        <v>227</v>
+      </c>
+      <c r="H183" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="184" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B184" s="5">
+        <v>7310</v>
+      </c>
+      <c r="C184" s="5"/>
+      <c r="D184" s="5">
+        <v>5887</v>
+      </c>
+      <c r="E184" t="s">
+        <v>231</v>
+      </c>
+      <c r="H184" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="185" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B185" s="5">
+        <v>7311</v>
+      </c>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5">
+        <v>7537</v>
+      </c>
+      <c r="E185" t="s">
+        <v>227</v>
+      </c>
+      <c r="H185" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="186" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B186" s="5">
+        <v>7312</v>
+      </c>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5">
+        <v>5893</v>
+      </c>
+      <c r="E186" t="s">
+        <v>231</v>
+      </c>
+      <c r="H186" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="187" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B187" s="5">
+        <v>7313</v>
+      </c>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5">
+        <v>5871</v>
+      </c>
+      <c r="E187" t="s">
+        <v>227</v>
+      </c>
+      <c r="H187" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B188" s="5">
+        <v>7314</v>
+      </c>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5">
+        <v>5891</v>
+      </c>
+      <c r="E188" t="s">
+        <v>231</v>
+      </c>
+      <c r="H188" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B189" s="5">
+        <v>7315</v>
+      </c>
+      <c r="C189" s="5"/>
+      <c r="D189" s="5">
+        <v>5888</v>
+      </c>
+      <c r="E189" t="s">
+        <v>227</v>
+      </c>
+      <c r="H189" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="190" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B190" s="5">
+        <v>7316</v>
+      </c>
+      <c r="C190" s="5"/>
+      <c r="D190" s="5">
+        <v>5579</v>
+      </c>
+      <c r="E190" t="s">
+        <v>227</v>
+      </c>
+      <c r="H190" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="191" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B191" s="5">
+        <v>7317</v>
+      </c>
+      <c r="C191" s="5"/>
+      <c r="D191" s="5">
+        <v>7598</v>
+      </c>
+      <c r="E191" t="s">
+        <v>227</v>
+      </c>
+      <c r="H191" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="192" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B192" s="5">
+        <v>7320</v>
+      </c>
+      <c r="C192" s="5"/>
+      <c r="D192" s="5">
+        <v>5886</v>
+      </c>
+      <c r="E192" t="s">
+        <v>227</v>
+      </c>
+      <c r="H192" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B193" s="5">
+        <v>7322</v>
+      </c>
+      <c r="C193" s="5"/>
+      <c r="D193" s="5">
+        <v>5587</v>
+      </c>
+      <c r="E193" t="s">
+        <v>227</v>
+      </c>
+      <c r="H193" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B194" s="5">
+        <v>7323</v>
+      </c>
+      <c r="C194" s="5"/>
+      <c r="D194" s="5">
+        <v>5892</v>
+      </c>
+      <c r="E194" t="s">
+        <v>227</v>
+      </c>
+      <c r="H194" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B195" s="5">
+        <v>7324</v>
+      </c>
+      <c r="C195" s="5"/>
+      <c r="D195" s="5">
+        <v>5875</v>
+      </c>
+      <c r="E195" t="s">
+        <v>231</v>
+      </c>
+      <c r="H195" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B196" s="5">
+        <v>7325</v>
+      </c>
+      <c r="C196" s="5"/>
+      <c r="D196" s="5">
+        <v>5885</v>
+      </c>
+      <c r="E196" t="s">
+        <v>231</v>
+      </c>
+      <c r="H196" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B197" s="5">
+        <v>7326</v>
+      </c>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5">
+        <v>5879</v>
+      </c>
+      <c r="E197" t="s">
+        <v>231</v>
+      </c>
+      <c r="H197" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B198" s="5">
         <v>7327</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" t="s">
+      <c r="C198" s="5"/>
+      <c r="D198" s="5">
+        <v>5884</v>
+      </c>
+      <c r="E198" t="s">
+        <v>227</v>
+      </c>
+      <c r="H198" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B199" s="5">
+        <v>7327</v>
+      </c>
+      <c r="C199" s="5"/>
+      <c r="D199" s="5"/>
+      <c r="E199" t="s">
         <v>230</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H199" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5">
-        <v>4327</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5">
-        <v>4327</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" t="s">
-        <v>230</v>
-      </c>
-      <c r="G6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5">
-        <v>4327</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5">
-        <v>7306</v>
-      </c>
-      <c r="C8" s="5">
-        <v>5868</v>
-      </c>
-      <c r="D8" t="s">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B200" s="5">
+        <v>7329</v>
+      </c>
+      <c r="C200" s="5"/>
+      <c r="D200" s="5">
+        <v>5847</v>
+      </c>
+      <c r="E200" t="s">
+        <v>227</v>
+      </c>
+      <c r="H200" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B201" s="5">
+        <v>7330</v>
+      </c>
+      <c r="C201" s="5"/>
+      <c r="D201" s="5">
+        <v>5882</v>
+      </c>
+      <c r="E201" t="s">
+        <v>227</v>
+      </c>
+      <c r="H201" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B202" s="5">
+        <v>7331</v>
+      </c>
+      <c r="C202" s="5"/>
+      <c r="D202" s="5">
+        <v>5589</v>
+      </c>
+      <c r="E202" t="s">
+        <v>227</v>
+      </c>
+      <c r="H202" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A203" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C203" s="5"/>
+      <c r="D203" s="5">
+        <v>1471</v>
+      </c>
+      <c r="E203" t="s">
+        <v>19</v>
+      </c>
+      <c r="G203" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A204" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C204" s="5"/>
+      <c r="D204" s="5">
+        <v>5825</v>
+      </c>
+      <c r="E204" t="s">
+        <v>19</v>
+      </c>
+      <c r="G204" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A205" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C205" s="5"/>
+      <c r="D205" s="5">
+        <v>5824</v>
+      </c>
+      <c r="E205" t="s">
+        <v>19</v>
+      </c>
+      <c r="G205" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B206" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C206" s="5"/>
+      <c r="D206" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E206" t="s">
+        <v>228</v>
+      </c>
+      <c r="H206" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A207" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B207" s="5"/>
+      <c r="C207" s="5"/>
+      <c r="D207" s="5">
+        <v>6648</v>
+      </c>
+      <c r="E207" t="s">
+        <v>19</v>
+      </c>
+      <c r="G207" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A208" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B208" s="5"/>
+      <c r="C208" s="5"/>
+      <c r="D208" s="5">
+        <v>5820</v>
+      </c>
+      <c r="E208" t="s">
+        <v>19</v>
+      </c>
+      <c r="G208" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="209" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B209" s="5"/>
+      <c r="C209" s="5"/>
+      <c r="D209" s="5"/>
+      <c r="E209" t="s">
         <v>231</v>
       </c>
-      <c r="G8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" t="s">
+      <c r="H209" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="210" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B210" s="5"/>
+      <c r="C210" s="5"/>
+      <c r="D210" s="5"/>
+      <c r="E210" t="s">
         <v>231</v>
       </c>
-      <c r="G9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5">
-        <v>7324</v>
-      </c>
-      <c r="C10" s="5">
-        <v>5875</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="H210" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="211" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B211" s="5"/>
+      <c r="C211" s="5"/>
+      <c r="D211" s="5"/>
+      <c r="E211" t="s">
         <v>231</v>
       </c>
-      <c r="G10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5">
-        <v>7326</v>
-      </c>
-      <c r="C11" s="5">
-        <v>5879</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="H211" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="212" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B212" s="5"/>
+      <c r="C212" s="5"/>
+      <c r="D212" s="5"/>
+      <c r="E212" t="s">
         <v>231</v>
       </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5">
-        <v>7325</v>
-      </c>
-      <c r="C12" s="5">
-        <v>5885</v>
-      </c>
-      <c r="D12" t="s">
-        <v>231</v>
-      </c>
-      <c r="G12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5">
-        <v>4319</v>
-      </c>
-      <c r="C13" s="5">
-        <v>5899</v>
-      </c>
-      <c r="D13" t="s">
-        <v>231</v>
-      </c>
-      <c r="G13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5">
-        <v>4318</v>
-      </c>
-      <c r="C14" s="5">
-        <v>5897</v>
-      </c>
-      <c r="D14" t="s">
-        <v>231</v>
-      </c>
-      <c r="G14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5">
-        <v>6332</v>
-      </c>
-      <c r="C15" s="5">
-        <v>5890</v>
-      </c>
-      <c r="D15" t="s">
-        <v>231</v>
-      </c>
-      <c r="G15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5">
-        <v>7314</v>
-      </c>
-      <c r="C16" s="5">
-        <v>5891</v>
-      </c>
-      <c r="D16" t="s">
-        <v>231</v>
-      </c>
-      <c r="G16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" t="s">
-        <v>231</v>
-      </c>
-      <c r="G17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5">
-        <v>7312</v>
-      </c>
-      <c r="C18" s="5">
-        <v>5893</v>
-      </c>
-      <c r="D18" t="s">
-        <v>231</v>
-      </c>
-      <c r="G18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" t="s">
-        <v>231</v>
-      </c>
-      <c r="G19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5">
-        <v>7307</v>
-      </c>
-      <c r="C20" s="5">
-        <v>5880</v>
-      </c>
-      <c r="D20" t="s">
-        <v>231</v>
-      </c>
-      <c r="G20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" t="s">
-        <v>231</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="H212" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5">
-        <v>7310</v>
-      </c>
-      <c r="C22" s="5">
-        <v>5887</v>
-      </c>
-      <c r="D22" t="s">
-        <v>231</v>
-      </c>
-      <c r="G22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5">
-        <v>7316</v>
-      </c>
-      <c r="C23" s="5">
-        <v>5579</v>
-      </c>
-      <c r="D23" t="s">
-        <v>227</v>
-      </c>
-      <c r="G23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5">
-        <v>6326</v>
-      </c>
-      <c r="C24" s="5">
-        <v>7538</v>
-      </c>
-      <c r="D24" t="s">
-        <v>227</v>
-      </c>
-      <c r="G24" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5">
-        <v>4335</v>
-      </c>
-      <c r="C25" s="5">
-        <v>7586</v>
-      </c>
-      <c r="D25" t="s">
-        <v>227</v>
-      </c>
-      <c r="G25" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5">
-        <v>7330</v>
-      </c>
-      <c r="C26" s="5">
-        <v>5882</v>
-      </c>
-      <c r="D26" t="s">
-        <v>227</v>
-      </c>
-      <c r="G26" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5">
-        <v>6319</v>
-      </c>
-      <c r="C27" s="5">
-        <v>7535</v>
-      </c>
-      <c r="D27" t="s">
-        <v>227</v>
-      </c>
-      <c r="G27" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5">
-        <v>4334</v>
-      </c>
-      <c r="C28" s="5">
-        <v>5835</v>
-      </c>
-      <c r="D28" t="s">
-        <v>227</v>
-      </c>
-      <c r="G28" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5">
-        <v>7315</v>
-      </c>
-      <c r="C29" s="5">
-        <v>5888</v>
-      </c>
-      <c r="D29" t="s">
-        <v>227</v>
-      </c>
-      <c r="G29" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5">
-        <v>7331</v>
-      </c>
-      <c r="C30" s="5">
-        <v>5589</v>
-      </c>
-      <c r="D30" t="s">
-        <v>227</v>
-      </c>
-      <c r="G30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5">
-        <v>4321</v>
-      </c>
-      <c r="C31" s="5">
-        <v>7542</v>
-      </c>
-      <c r="D31" t="s">
-        <v>227</v>
-      </c>
-      <c r="G31" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5">
-        <v>6329</v>
-      </c>
-      <c r="C32" s="5">
-        <v>7534</v>
-      </c>
-      <c r="D32" t="s">
-        <v>227</v>
-      </c>
-      <c r="G32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5">
-        <v>4320</v>
-      </c>
-      <c r="C33" s="5">
-        <v>1482</v>
-      </c>
-      <c r="D33" t="s">
-        <v>227</v>
-      </c>
-      <c r="G33" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5">
-        <v>6315</v>
-      </c>
-      <c r="C34" s="5">
-        <v>7584</v>
-      </c>
-      <c r="D34" t="s">
-        <v>227</v>
-      </c>
-      <c r="G34" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5">
-        <v>7311</v>
-      </c>
-      <c r="C35" s="5">
-        <v>7537</v>
-      </c>
-      <c r="D35" t="s">
-        <v>227</v>
-      </c>
-      <c r="G35" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5">
-        <v>4314</v>
-      </c>
-      <c r="C36" s="5">
-        <v>6579</v>
-      </c>
-      <c r="D36" t="s">
-        <v>227</v>
-      </c>
-      <c r="G36" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5">
-        <v>4311</v>
-      </c>
-      <c r="C37" s="5">
-        <v>5878</v>
-      </c>
-      <c r="D37" t="s">
-        <v>227</v>
-      </c>
-      <c r="G37" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5">
-        <v>6318</v>
-      </c>
-      <c r="C38" s="5">
-        <v>7597</v>
-      </c>
-      <c r="D38" t="s">
-        <v>227</v>
-      </c>
-      <c r="G38" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5">
-        <v>7317</v>
-      </c>
-      <c r="C39" s="5">
-        <v>7598</v>
-      </c>
-      <c r="D39" t="s">
-        <v>227</v>
-      </c>
-      <c r="G39" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5">
-        <v>4329</v>
-      </c>
-      <c r="C40" s="5">
-        <v>1488</v>
-      </c>
-      <c r="D40" t="s">
-        <v>227</v>
-      </c>
-      <c r="G40" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5">
-        <v>7322</v>
-      </c>
-      <c r="C41" s="5">
-        <v>5587</v>
-      </c>
-      <c r="D41" t="s">
-        <v>227</v>
-      </c>
-      <c r="G41" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5">
-        <v>4330</v>
-      </c>
-      <c r="C42" s="5">
-        <v>1485</v>
-      </c>
-      <c r="D42" t="s">
-        <v>227</v>
-      </c>
-      <c r="G42" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5">
-        <v>7327</v>
-      </c>
-      <c r="C43" s="5">
-        <v>5884</v>
-      </c>
-      <c r="D43" t="s">
-        <v>227</v>
-      </c>
-      <c r="G43" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5">
-        <v>6322</v>
-      </c>
-      <c r="C44" s="5">
-        <v>5849</v>
-      </c>
-      <c r="D44" t="s">
-        <v>227</v>
-      </c>
-      <c r="G44" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5">
-        <v>4337</v>
-      </c>
-      <c r="C45" s="5">
-        <v>1483</v>
-      </c>
-      <c r="D45" t="s">
-        <v>227</v>
-      </c>
-      <c r="G45" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5">
-        <v>6308</v>
-      </c>
-      <c r="C46" s="5">
-        <v>7533</v>
-      </c>
-      <c r="D46" t="s">
-        <v>227</v>
-      </c>
-      <c r="G46" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5">
-        <v>6333</v>
-      </c>
-      <c r="C47" s="5">
-        <v>5872</v>
-      </c>
-      <c r="D47" t="s">
-        <v>227</v>
-      </c>
-      <c r="G47" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5">
-        <v>6327</v>
-      </c>
-      <c r="C48" s="5">
-        <v>7536</v>
-      </c>
-      <c r="D48" t="s">
-        <v>227</v>
-      </c>
-      <c r="G48" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5">
-        <v>4312</v>
-      </c>
-      <c r="C49" s="5">
-        <v>5876</v>
-      </c>
-      <c r="D49" t="s">
-        <v>227</v>
-      </c>
-      <c r="G49" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5">
-        <v>4323</v>
-      </c>
-      <c r="C50" s="5">
-        <v>5852</v>
-      </c>
-      <c r="D50" t="s">
-        <v>227</v>
-      </c>
-      <c r="G50" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5">
-        <v>6330</v>
-      </c>
-      <c r="C51" s="5">
-        <v>7588</v>
-      </c>
-      <c r="D51" t="s">
-        <v>227</v>
-      </c>
-      <c r="G51" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5">
-        <v>6324</v>
-      </c>
-      <c r="C52" s="5">
-        <v>7590</v>
-      </c>
-      <c r="D52" t="s">
-        <v>227</v>
-      </c>
-      <c r="G52" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5">
-        <v>4336</v>
-      </c>
-      <c r="C53" s="5">
-        <v>1469</v>
-      </c>
-      <c r="D53" t="s">
-        <v>227</v>
-      </c>
-      <c r="G53" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5">
-        <v>6317</v>
-      </c>
-      <c r="C54" s="5">
-        <v>5836</v>
-      </c>
-      <c r="D54" t="s">
-        <v>227</v>
-      </c>
-      <c r="G54" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5">
-        <v>4331</v>
-      </c>
-      <c r="C55" s="5">
-        <v>1489</v>
-      </c>
-      <c r="D55" t="s">
-        <v>227</v>
-      </c>
-      <c r="G55" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5">
-        <v>7309</v>
-      </c>
-      <c r="C56" s="5">
-        <v>5898</v>
-      </c>
-      <c r="D56" t="s">
-        <v>227</v>
-      </c>
-      <c r="G56" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5">
-        <v>6312</v>
-      </c>
-      <c r="C57" s="5">
-        <v>7587</v>
-      </c>
-      <c r="D57" t="s">
-        <v>227</v>
-      </c>
-      <c r="G57" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5">
-        <v>6309</v>
-      </c>
-      <c r="C58" s="5">
-        <v>5864</v>
-      </c>
-      <c r="D58" t="s">
-        <v>227</v>
-      </c>
-      <c r="G58" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5">
-        <v>4310</v>
-      </c>
-      <c r="C59" s="5">
-        <v>7589</v>
-      </c>
-      <c r="D59" t="s">
-        <v>227</v>
-      </c>
-      <c r="G59" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5">
-        <v>6328</v>
-      </c>
-      <c r="C60" s="5">
-        <v>5883</v>
-      </c>
-      <c r="D60" t="s">
-        <v>227</v>
-      </c>
-      <c r="G60" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5">
-        <v>6323</v>
-      </c>
-      <c r="C61" s="5">
-        <v>5870</v>
-      </c>
-      <c r="D61" t="s">
-        <v>227</v>
-      </c>
-      <c r="G61" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5">
-        <v>4322</v>
-      </c>
-      <c r="C62" s="5">
-        <v>5869</v>
-      </c>
-      <c r="D62" t="s">
-        <v>227</v>
-      </c>
-      <c r="G62" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5">
-        <v>6310</v>
-      </c>
-      <c r="C63" s="5">
-        <v>5586</v>
-      </c>
-      <c r="D63" t="s">
-        <v>227</v>
-      </c>
-      <c r="G63" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5">
-        <v>6313</v>
-      </c>
-      <c r="C64" s="5">
-        <v>7541</v>
-      </c>
-      <c r="D64" t="s">
-        <v>227</v>
-      </c>
-      <c r="G64" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5">
-        <v>7313</v>
-      </c>
-      <c r="C65" s="5">
-        <v>5871</v>
-      </c>
-      <c r="D65" t="s">
-        <v>227</v>
-      </c>
-      <c r="G65" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5">
-        <v>6325</v>
-      </c>
-      <c r="C66" s="5">
-        <v>7599</v>
-      </c>
-      <c r="D66" t="s">
-        <v>227</v>
-      </c>
-      <c r="G66" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5">
-        <v>4317</v>
-      </c>
-      <c r="C67" s="5">
-        <v>5845</v>
-      </c>
-      <c r="D67" t="s">
-        <v>227</v>
-      </c>
-      <c r="G67" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5">
-        <v>7323</v>
-      </c>
-      <c r="C68" s="5">
-        <v>5892</v>
-      </c>
-      <c r="D68" t="s">
-        <v>227</v>
-      </c>
-      <c r="G68" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C69" s="5">
-        <v>5857</v>
-      </c>
-      <c r="D69" t="s">
-        <v>227</v>
-      </c>
-      <c r="G69" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5">
-        <v>6320</v>
-      </c>
-      <c r="C70" s="5">
-        <v>7583</v>
-      </c>
-      <c r="D70" t="s">
-        <v>227</v>
-      </c>
-      <c r="G70" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5">
-        <v>6331</v>
-      </c>
-      <c r="C71" s="5">
-        <v>7539</v>
-      </c>
-      <c r="D71" t="s">
-        <v>227</v>
-      </c>
-      <c r="G71" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5">
-        <v>6314</v>
-      </c>
-      <c r="C72" s="5">
-        <v>5881</v>
-      </c>
-      <c r="D72" t="s">
-        <v>227</v>
-      </c>
-      <c r="G72" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5">
-        <v>7320</v>
-      </c>
-      <c r="C73" s="5">
-        <v>5886</v>
-      </c>
-      <c r="D73" t="s">
-        <v>227</v>
-      </c>
-      <c r="G73" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5">
-        <v>6311</v>
-      </c>
-      <c r="C74" s="5">
-        <v>5895</v>
-      </c>
-      <c r="D74" t="s">
-        <v>227</v>
-      </c>
-      <c r="G74" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5">
-        <v>6307</v>
-      </c>
-      <c r="C75" s="5">
-        <v>5874</v>
-      </c>
-      <c r="D75" t="s">
-        <v>227</v>
-      </c>
-      <c r="G75" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C76" s="5">
-        <v>5858</v>
-      </c>
-      <c r="D76" t="s">
-        <v>227</v>
-      </c>
-      <c r="G76" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5">
-        <v>4316</v>
-      </c>
-      <c r="C77" s="5">
-        <v>6578</v>
-      </c>
-      <c r="D77" t="s">
-        <v>227</v>
-      </c>
-      <c r="G77" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5">
-        <v>6306</v>
-      </c>
-      <c r="C78" s="5">
-        <v>5877</v>
-      </c>
-      <c r="D78" t="s">
-        <v>227</v>
-      </c>
-      <c r="G78" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5">
-        <v>6316</v>
-      </c>
-      <c r="C79" s="5">
-        <v>5594</v>
-      </c>
-      <c r="D79" t="s">
-        <v>227</v>
-      </c>
-      <c r="G79" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5">
-        <v>4313</v>
-      </c>
-      <c r="C80" s="5">
-        <v>1486</v>
-      </c>
-      <c r="D80" t="s">
-        <v>227</v>
-      </c>
-      <c r="G80" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5">
-        <v>7308</v>
-      </c>
-      <c r="C81" s="5">
-        <v>5867</v>
-      </c>
-      <c r="D81" t="s">
-        <v>227</v>
-      </c>
-      <c r="G81" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5">
-        <v>7329</v>
-      </c>
-      <c r="C82" s="5">
-        <v>5847</v>
-      </c>
-      <c r="D82" t="s">
-        <v>227</v>
-      </c>
-      <c r="G82" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B83" s="5">
-        <v>3005</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D83" t="s">
-        <v>225</v>
-      </c>
-      <c r="E83" t="s">
-        <v>288</v>
-      </c>
-      <c r="F83" t="s">
-        <v>48</v>
-      </c>
-      <c r="G83" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B84" s="5">
-        <v>3312</v>
-      </c>
-      <c r="C84" s="5">
-        <v>5833</v>
-      </c>
-      <c r="D84" t="s">
-        <v>225</v>
-      </c>
-      <c r="E84" t="s">
-        <v>253</v>
-      </c>
-      <c r="F84" t="s">
-        <v>277</v>
-      </c>
-      <c r="G84" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B85" s="5">
-        <v>3301</v>
-      </c>
-      <c r="C85" s="5">
-        <v>5863</v>
-      </c>
-      <c r="D85" t="s">
-        <v>225</v>
-      </c>
-      <c r="E85" t="s">
-        <v>249</v>
-      </c>
-      <c r="F85" t="s">
-        <v>27</v>
-      </c>
-      <c r="G85" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B86" s="5">
-        <v>3302</v>
-      </c>
-      <c r="C86" s="5">
-        <v>1481</v>
-      </c>
-      <c r="D86" t="s">
-        <v>225</v>
-      </c>
-      <c r="E86" t="s">
-        <v>249</v>
-      </c>
-      <c r="F86" t="s">
-        <v>27</v>
-      </c>
-      <c r="G86" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B87" s="5">
-        <v>3310</v>
-      </c>
-      <c r="C87" s="5">
-        <v>5854</v>
-      </c>
-      <c r="D87" t="s">
-        <v>225</v>
-      </c>
-      <c r="E87" t="s">
-        <v>251</v>
-      </c>
-      <c r="F87" t="s">
-        <v>275</v>
-      </c>
-      <c r="G87" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B88" s="5">
-        <v>3309</v>
-      </c>
-      <c r="C88" s="5">
-        <v>1480</v>
-      </c>
-      <c r="D88" t="s">
-        <v>225</v>
-      </c>
-      <c r="E88" t="s">
-        <v>250</v>
-      </c>
-      <c r="F88" t="s">
-        <v>274</v>
-      </c>
-      <c r="G88" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B89" s="5">
-        <v>2312</v>
-      </c>
-      <c r="C89" s="5">
-        <v>1475</v>
-      </c>
-      <c r="D89" t="s">
-        <v>225</v>
-      </c>
-      <c r="E89" t="s">
-        <v>246</v>
-      </c>
-      <c r="F89" t="s">
-        <v>269</v>
-      </c>
-      <c r="G89" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B90" s="5">
-        <v>3011</v>
-      </c>
-      <c r="C90" s="5">
-        <v>5575</v>
-      </c>
-      <c r="D90" t="s">
-        <v>225</v>
-      </c>
-      <c r="E90" t="s">
-        <v>248</v>
-      </c>
-      <c r="F90" t="s">
-        <v>273</v>
-      </c>
-      <c r="G90" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B91" s="5">
-        <v>3311</v>
-      </c>
-      <c r="C91" s="5">
-        <v>5851</v>
-      </c>
-      <c r="D91" t="s">
-        <v>225</v>
-      </c>
-      <c r="E91" t="s">
-        <v>252</v>
-      </c>
-      <c r="F91" t="s">
-        <v>276</v>
-      </c>
-      <c r="G91" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B92" s="5">
-        <v>4341</v>
-      </c>
-      <c r="C92" s="5">
-        <v>5850</v>
-      </c>
-      <c r="D92" t="s">
-        <v>225</v>
-      </c>
-      <c r="E92" t="s">
-        <v>259</v>
-      </c>
-      <c r="F92" t="s">
-        <v>282</v>
-      </c>
-      <c r="G92" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B93" s="5">
-        <v>4303</v>
-      </c>
-      <c r="C93" s="5">
-        <v>1495</v>
-      </c>
-      <c r="D93" t="s">
-        <v>225</v>
-      </c>
-      <c r="E93" t="s">
-        <v>303</v>
-      </c>
-      <c r="F93" t="s">
-        <v>304</v>
-      </c>
-      <c r="G93" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B94" s="5">
-        <v>4303</v>
-      </c>
-      <c r="C94" s="5">
-        <v>1495</v>
-      </c>
-      <c r="D94" t="s">
-        <v>225</v>
-      </c>
-      <c r="E94" t="s">
-        <v>255</v>
-      </c>
-      <c r="F94" t="s">
-        <v>279</v>
-      </c>
-      <c r="G94" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B95" s="5">
-        <v>2302</v>
-      </c>
-      <c r="C95" s="5">
-        <v>1478</v>
-      </c>
-      <c r="D95" t="s">
-        <v>225</v>
-      </c>
-      <c r="E95" t="s">
-        <v>243</v>
-      </c>
-      <c r="F95" t="s">
-        <v>266</v>
-      </c>
-      <c r="G95" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B96" s="5">
-        <v>2303</v>
-      </c>
-      <c r="C96" s="5">
-        <v>5843</v>
-      </c>
-      <c r="D96" t="s">
-        <v>225</v>
-      </c>
-      <c r="E96" t="s">
-        <v>243</v>
-      </c>
-      <c r="F96" t="s">
-        <v>266</v>
-      </c>
-      <c r="G96" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B97" s="5">
-        <v>3313</v>
-      </c>
-      <c r="C97" s="5">
-        <v>1479</v>
-      </c>
-      <c r="D97" t="s">
-        <v>225</v>
-      </c>
-      <c r="E97" t="s">
-        <v>254</v>
-      </c>
-      <c r="F97" t="s">
-        <v>278</v>
-      </c>
-      <c r="G97" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B98" s="5">
-        <v>2314</v>
-      </c>
-      <c r="C98" s="5">
-        <v>1473</v>
-      </c>
-      <c r="D98" t="s">
-        <v>225</v>
-      </c>
-      <c r="E98" t="s">
-        <v>247</v>
-      </c>
-      <c r="F98" t="s">
-        <v>53</v>
-      </c>
-      <c r="G98" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B99" s="5">
-        <v>2313</v>
-      </c>
-      <c r="C99" s="5">
-        <v>1474</v>
-      </c>
-      <c r="D99" t="s">
-        <v>225</v>
-      </c>
-      <c r="E99" t="s">
-        <v>246</v>
-      </c>
-      <c r="F99" t="s">
-        <v>269</v>
-      </c>
-      <c r="G99" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B100" s="5">
-        <v>4340</v>
-      </c>
-      <c r="C100" s="5">
-        <v>5896</v>
-      </c>
-      <c r="D100" t="s">
-        <v>225</v>
-      </c>
-      <c r="E100" t="s">
-        <v>258</v>
-      </c>
-      <c r="F100" t="s">
-        <v>281</v>
-      </c>
-      <c r="G100" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B101" s="5">
-        <v>2315</v>
-      </c>
-      <c r="C101" s="5">
-        <v>5856</v>
-      </c>
-      <c r="D101" t="s">
-        <v>225</v>
-      </c>
-      <c r="E101" t="s">
-        <v>247</v>
-      </c>
-      <c r="F101" t="s">
-        <v>270</v>
-      </c>
-      <c r="G101" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B102" s="5">
-        <v>2301</v>
-      </c>
-      <c r="C102" s="5">
-        <v>5842</v>
-      </c>
-      <c r="D102" t="s">
-        <v>225</v>
-      </c>
-      <c r="E102" t="s">
-        <v>242</v>
-      </c>
-      <c r="F102" t="s">
-        <v>265</v>
-      </c>
-      <c r="G102" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B103" s="5">
-        <v>4304</v>
-      </c>
-      <c r="C103" s="5">
-        <v>5848</v>
-      </c>
-      <c r="D103" t="s">
-        <v>225</v>
-      </c>
-      <c r="E103" t="s">
-        <v>256</v>
-      </c>
-      <c r="F103" t="s">
-        <v>280</v>
-      </c>
-      <c r="G103" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B104" s="5">
-        <v>2310</v>
-      </c>
-      <c r="C104" s="5">
-        <v>1477</v>
-      </c>
-      <c r="D104" t="s">
-        <v>225</v>
-      </c>
-      <c r="E104" t="s">
-        <v>245</v>
-      </c>
-      <c r="F104" t="s">
-        <v>268</v>
-      </c>
-      <c r="G104" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B105" s="5">
-        <v>2311</v>
-      </c>
-      <c r="C105" s="5">
-        <v>1476</v>
-      </c>
-      <c r="D105" t="s">
-        <v>225</v>
-      </c>
-      <c r="E105" t="s">
-        <v>245</v>
-      </c>
-      <c r="F105" t="s">
-        <v>268</v>
-      </c>
-      <c r="G105" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B106" s="5">
-        <v>2309</v>
-      </c>
-      <c r="C106" s="5">
-        <v>5839</v>
-      </c>
-      <c r="D106" t="s">
-        <v>225</v>
-      </c>
-      <c r="E106" t="s">
-        <v>244</v>
-      </c>
-      <c r="F106" t="s">
-        <v>267</v>
-      </c>
-      <c r="G106" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B107" s="5">
-        <v>2321</v>
-      </c>
-      <c r="C107" s="5">
-        <v>5590</v>
-      </c>
-      <c r="D107" t="s">
-        <v>225</v>
-      </c>
-      <c r="E107" t="s">
-        <v>244</v>
-      </c>
-      <c r="F107" t="s">
-        <v>271</v>
-      </c>
-      <c r="G107" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B108" s="5">
-        <v>4302</v>
-      </c>
-      <c r="C108" s="5">
-        <v>5575</v>
-      </c>
-      <c r="D108" t="s">
-        <v>225</v>
-      </c>
-      <c r="E108" t="s">
-        <v>301</v>
-      </c>
-      <c r="F108" t="s">
-        <v>302</v>
-      </c>
-      <c r="G108" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B109" s="5">
-        <v>4342</v>
-      </c>
-      <c r="C109" s="5">
-        <v>5566</v>
-      </c>
-      <c r="D109" t="s">
-        <v>225</v>
-      </c>
-      <c r="E109" t="s">
-        <v>260</v>
-      </c>
-      <c r="F109" t="s">
-        <v>283</v>
-      </c>
-      <c r="G109" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C110" s="5">
-        <v>7596</v>
-      </c>
-      <c r="D110" t="s">
-        <v>225</v>
-      </c>
-      <c r="F110" t="s">
-        <v>272</v>
-      </c>
-      <c r="G110" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C111" s="5">
-        <v>5693</v>
-      </c>
-      <c r="D111" t="s">
-        <v>225</v>
-      </c>
-      <c r="F111" t="s">
-        <v>272</v>
-      </c>
-      <c r="G111" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B112" s="5">
-        <v>4339</v>
-      </c>
-      <c r="C112" s="5">
-        <v>5832</v>
-      </c>
-      <c r="D112" t="s">
-        <v>225</v>
-      </c>
-      <c r="E112" t="s">
-        <v>257</v>
-      </c>
-      <c r="F112" t="s">
-        <v>36</v>
-      </c>
-      <c r="G112" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B113" s="5">
-        <v>3319</v>
-      </c>
-      <c r="C113" s="5">
-        <v>7561</v>
-      </c>
-      <c r="D113" t="s">
-        <v>225</v>
-      </c>
-      <c r="E113" t="s">
-        <v>33</v>
-      </c>
-      <c r="F113" t="s">
-        <v>33</v>
-      </c>
-      <c r="G113" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A114" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B114" s="5">
-        <v>3320</v>
-      </c>
-      <c r="C114" s="5">
-        <v>7562</v>
-      </c>
-      <c r="D114" t="s">
-        <v>225</v>
-      </c>
-      <c r="E114" t="s">
-        <v>33</v>
-      </c>
-      <c r="F114" t="s">
-        <v>33</v>
-      </c>
-      <c r="G114" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A115" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B115" s="5">
-        <v>3321</v>
-      </c>
-      <c r="C115" s="5">
-        <v>7563</v>
-      </c>
-      <c r="D115" t="s">
-        <v>225</v>
-      </c>
-      <c r="E115" t="s">
-        <v>33</v>
-      </c>
-      <c r="F115" t="s">
-        <v>33</v>
-      </c>
-      <c r="G115" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A116" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B116" s="5">
-        <v>3322</v>
-      </c>
-      <c r="C116" s="5">
-        <v>7564</v>
-      </c>
-      <c r="D116" t="s">
-        <v>225</v>
-      </c>
-      <c r="E116" t="s">
-        <v>33</v>
-      </c>
-      <c r="F116" t="s">
-        <v>33</v>
-      </c>
-      <c r="G116" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A117" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B117" s="5">
-        <v>3003</v>
-      </c>
-      <c r="C117" s="5">
-        <v>5765</v>
-      </c>
-      <c r="D117" t="s">
-        <v>225</v>
-      </c>
-      <c r="E117" t="s">
-        <v>263</v>
-      </c>
-      <c r="F117" t="s">
-        <v>17</v>
-      </c>
-      <c r="G117" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A118" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B118" s="5">
-        <v>2011</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D118" t="s">
-        <v>226</v>
-      </c>
-      <c r="E118" t="s">
-        <v>136</v>
-      </c>
-      <c r="F118" t="s">
-        <v>284</v>
-      </c>
-      <c r="G118" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A119" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B119" s="5">
-        <v>2019</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D119" t="s">
-        <v>226</v>
-      </c>
-      <c r="E119" t="s">
-        <v>136</v>
-      </c>
-      <c r="F119" t="s">
-        <v>291</v>
-      </c>
-      <c r="G119" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A120" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B120" s="5">
-        <v>2020</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D120" t="s">
-        <v>226</v>
-      </c>
-      <c r="E120" t="s">
-        <v>136</v>
-      </c>
-      <c r="F120" t="s">
-        <v>291</v>
-      </c>
-      <c r="G120" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A121" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B121" s="5">
-        <v>2021</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D121" t="s">
-        <v>226</v>
-      </c>
-      <c r="E121" t="s">
-        <v>136</v>
-      </c>
-      <c r="F121" t="s">
-        <v>292</v>
-      </c>
-      <c r="G121" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B122" s="5">
-        <v>2022</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D122" t="s">
-        <v>226</v>
-      </c>
-      <c r="E122" t="s">
-        <v>136</v>
-      </c>
-      <c r="F122" t="s">
-        <v>293</v>
-      </c>
-      <c r="G122" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B123" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D123" t="s">
-        <v>226</v>
-      </c>
-      <c r="E123" t="s">
-        <v>136</v>
-      </c>
-      <c r="F123" t="s">
-        <v>284</v>
-      </c>
-      <c r="G123" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A124" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B124" s="5">
-        <v>3006</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D124" t="s">
-        <v>226</v>
-      </c>
-      <c r="F124" t="s">
-        <v>70</v>
-      </c>
-      <c r="G124" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B125" s="5">
-        <v>2017</v>
-      </c>
-      <c r="C125" s="5">
-        <v>5859</v>
-      </c>
-      <c r="D125" t="s">
-        <v>226</v>
-      </c>
-      <c r="E125" t="s">
-        <v>136</v>
-      </c>
-      <c r="F125" t="s">
-        <v>286</v>
-      </c>
-      <c r="G125" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A126" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B126" s="5">
-        <v>2018</v>
-      </c>
-      <c r="C126" s="5">
-        <v>5859</v>
-      </c>
-      <c r="D126" t="s">
-        <v>226</v>
-      </c>
-      <c r="E126" t="s">
-        <v>136</v>
-      </c>
-      <c r="F126" t="s">
-        <v>286</v>
-      </c>
-      <c r="G126" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A127" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B127" s="5">
-        <v>3007</v>
-      </c>
-      <c r="C127" s="5">
-        <v>5571</v>
-      </c>
-      <c r="D127" t="s">
-        <v>226</v>
-      </c>
-      <c r="F127" t="s">
-        <v>287</v>
-      </c>
-      <c r="G127" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A128" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B128" s="5">
-        <v>3001</v>
-      </c>
-      <c r="C128" s="5">
-        <v>5570</v>
-      </c>
-      <c r="D128" t="s">
-        <v>226</v>
-      </c>
-      <c r="E128" t="s">
-        <v>264</v>
-      </c>
-      <c r="F128" t="s">
-        <v>261</v>
-      </c>
-      <c r="G128" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A129" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B129" s="5">
-        <v>3001</v>
-      </c>
-      <c r="C129" s="5">
-        <v>5570</v>
-      </c>
-      <c r="D129" t="s">
-        <v>226</v>
-      </c>
-      <c r="E129" t="s">
-        <v>264</v>
-      </c>
-      <c r="F129" t="s">
-        <v>261</v>
-      </c>
-      <c r="G129" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A130" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B130" s="5">
-        <v>2012</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D130" t="s">
-        <v>226</v>
-      </c>
-      <c r="E130" t="s">
-        <v>289</v>
-      </c>
-      <c r="F130" t="s">
-        <v>285</v>
-      </c>
-      <c r="G130" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B131" s="5">
-        <v>3011</v>
-      </c>
-      <c r="C131" s="5">
-        <v>5588</v>
-      </c>
-      <c r="D131" t="s">
-        <v>226</v>
-      </c>
-      <c r="E131" t="s">
-        <v>262</v>
-      </c>
-      <c r="F131" t="s">
-        <v>84</v>
-      </c>
-      <c r="G131" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A132" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B132" s="5">
-        <v>3012</v>
-      </c>
-      <c r="C132" s="5">
-        <v>5866</v>
-      </c>
-      <c r="D132" t="s">
-        <v>226</v>
-      </c>
-      <c r="E132" t="s">
-        <v>262</v>
-      </c>
-      <c r="F132" t="s">
-        <v>84</v>
-      </c>
-      <c r="G132" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A133" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B133" s="5">
-        <v>3013</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D133" t="s">
-        <v>226</v>
-      </c>
-      <c r="E133" t="s">
-        <v>262</v>
-      </c>
-      <c r="F133" t="s">
-        <v>84</v>
-      </c>
-      <c r="G133" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A134" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B134" s="5">
-        <v>3014</v>
-      </c>
-      <c r="C134" s="5">
-        <v>5569</v>
-      </c>
-      <c r="D134" t="s">
-        <v>226</v>
-      </c>
-      <c r="E134" t="s">
-        <v>262</v>
-      </c>
-      <c r="F134" t="s">
-        <v>84</v>
-      </c>
-      <c r="G134" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A135" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B135" s="5">
-        <v>3014</v>
-      </c>
-      <c r="C135" s="5">
-        <v>5565</v>
-      </c>
-      <c r="D135" t="s">
-        <v>226</v>
-      </c>
-      <c r="E135" t="s">
-        <v>262</v>
-      </c>
-      <c r="F135" t="s">
-        <v>84</v>
-      </c>
-      <c r="G135" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A136" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B136" s="5">
-        <v>3015</v>
-      </c>
-      <c r="C136" s="5">
-        <v>5572</v>
-      </c>
-      <c r="D136" t="s">
-        <v>226</v>
-      </c>
-      <c r="E136" t="s">
-        <v>262</v>
-      </c>
-      <c r="F136" t="s">
-        <v>84</v>
-      </c>
-      <c r="G136" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A137" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B137" s="5">
-        <v>3015</v>
-      </c>
-      <c r="C137" s="5">
-        <v>5837</v>
-      </c>
-      <c r="D137" t="s">
-        <v>226</v>
-      </c>
-      <c r="E137" t="s">
-        <v>262</v>
-      </c>
-      <c r="F137" t="s">
-        <v>84</v>
-      </c>
-      <c r="G137" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A138" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C138" s="5">
-        <v>5855</v>
-      </c>
-      <c r="D138" t="s">
-        <v>226</v>
-      </c>
-      <c r="E138" t="s">
-        <v>262</v>
-      </c>
-      <c r="F138" t="s">
-        <v>84</v>
-      </c>
-      <c r="G138" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A139" s="5"/>
-      <c r="B139" s="5">
-        <v>1003</v>
-      </c>
-      <c r="C139" s="5">
-        <v>5811</v>
-      </c>
-      <c r="D139" t="s">
-        <v>19</v>
-      </c>
-      <c r="F139" t="s">
-        <v>241</v>
-      </c>
-      <c r="G139" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A140" s="5"/>
-      <c r="B140" s="5">
-        <v>2005</v>
-      </c>
-      <c r="C140" s="5">
-        <v>5380</v>
-      </c>
-      <c r="D140" t="s">
-        <v>19</v>
-      </c>
-      <c r="F140" t="s">
-        <v>239</v>
-      </c>
-      <c r="G140" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A141" s="5"/>
-      <c r="B141" s="5">
-        <v>2005</v>
-      </c>
-      <c r="C141" s="5">
-        <v>7547</v>
-      </c>
-      <c r="D141" t="s">
-        <v>19</v>
-      </c>
-      <c r="F141" t="s">
-        <v>235</v>
-      </c>
-      <c r="G141" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142" s="5"/>
-      <c r="B142" s="5">
-        <v>2005</v>
-      </c>
-      <c r="C142" s="5">
-        <v>5806</v>
-      </c>
-      <c r="D142" t="s">
-        <v>19</v>
-      </c>
-      <c r="F142" t="s">
-        <v>240</v>
-      </c>
-      <c r="G142" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A143" s="5"/>
-      <c r="B143" s="5">
-        <v>1002</v>
-      </c>
-      <c r="C143" s="5">
-        <v>5801</v>
-      </c>
-      <c r="D143" t="s">
-        <v>19</v>
-      </c>
-      <c r="F143" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A144" s="5"/>
-      <c r="B144" s="5">
-        <v>1034</v>
-      </c>
-      <c r="C144" s="5">
-        <v>5593</v>
-      </c>
-      <c r="D144" t="s">
-        <v>19</v>
-      </c>
-      <c r="F144" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="5"/>
-      <c r="B145" s="5">
-        <v>1047</v>
-      </c>
-      <c r="C145" s="5">
-        <v>5823</v>
-      </c>
-      <c r="D145" t="s">
-        <v>19</v>
-      </c>
-      <c r="F145" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="5"/>
-      <c r="B146" s="5">
-        <v>1048</v>
-      </c>
-      <c r="C146" s="5">
-        <v>5823</v>
-      </c>
-      <c r="D146" t="s">
-        <v>19</v>
-      </c>
-      <c r="F146" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="5"/>
-      <c r="B147" s="5">
-        <v>2003</v>
-      </c>
-      <c r="C147" s="5">
-        <v>5818</v>
-      </c>
-      <c r="D147" t="s">
-        <v>19</v>
-      </c>
-      <c r="F147" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="5"/>
-      <c r="B148" s="5">
-        <v>2004</v>
-      </c>
-      <c r="C148" s="5">
-        <v>5812</v>
-      </c>
-      <c r="D148" t="s">
-        <v>19</v>
-      </c>
-      <c r="F148" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="5"/>
-      <c r="B149" s="5">
-        <v>2040</v>
-      </c>
-      <c r="C149" s="5">
-        <v>5393</v>
-      </c>
-      <c r="D149" t="s">
-        <v>19</v>
-      </c>
-      <c r="F149" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B150" s="5">
-        <v>3004</v>
-      </c>
-      <c r="C150" s="5"/>
-      <c r="D150" t="s">
-        <v>19</v>
-      </c>
-      <c r="F150" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="5"/>
-      <c r="B151" s="5">
-        <v>3117</v>
-      </c>
-      <c r="C151" s="5">
-        <v>5805</v>
-      </c>
-      <c r="D151" t="s">
-        <v>19</v>
-      </c>
-      <c r="F151" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="5"/>
-      <c r="B152" s="5">
-        <v>3118</v>
-      </c>
-      <c r="C152" s="5">
-        <v>5822</v>
-      </c>
-      <c r="D152" t="s">
-        <v>19</v>
-      </c>
-      <c r="F152" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="5"/>
-      <c r="B153" s="5">
-        <v>3119</v>
-      </c>
-      <c r="C153" s="5">
-        <v>5807</v>
-      </c>
-      <c r="D153" t="s">
-        <v>19</v>
-      </c>
-      <c r="F153" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="5"/>
-      <c r="B154" s="5">
-        <v>3124</v>
-      </c>
-      <c r="C154" s="5">
-        <v>5564</v>
-      </c>
-      <c r="D154" t="s">
-        <v>19</v>
-      </c>
-      <c r="F154" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="5"/>
-      <c r="B155" s="5">
-        <v>4222</v>
-      </c>
-      <c r="C155" s="5">
-        <v>5802</v>
-      </c>
-      <c r="D155" t="s">
-        <v>19</v>
-      </c>
-      <c r="F155" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="5"/>
-      <c r="B156" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C156" s="5">
-        <v>1471</v>
-      </c>
-      <c r="D156" t="s">
-        <v>19</v>
-      </c>
-      <c r="F156" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="5"/>
-      <c r="B157" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C157" s="5">
-        <v>5825</v>
-      </c>
-      <c r="D157" t="s">
-        <v>19</v>
-      </c>
-      <c r="F157" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="5"/>
-      <c r="B158" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C158" s="5">
-        <v>5824</v>
-      </c>
-      <c r="D158" t="s">
-        <v>19</v>
-      </c>
-      <c r="F158" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="5"/>
-      <c r="B159" s="5"/>
-      <c r="C159" s="5">
-        <v>6648</v>
-      </c>
-      <c r="D159" t="s">
-        <v>19</v>
-      </c>
-      <c r="F159" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="5"/>
-      <c r="B160" s="5"/>
-      <c r="C160" s="5">
-        <v>5820</v>
-      </c>
-      <c r="D160" t="s">
-        <v>19</v>
-      </c>
-      <c r="F160" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A161" s="5"/>
-      <c r="B161" s="5">
-        <v>5309</v>
-      </c>
-      <c r="C161" s="5">
-        <v>5567</v>
-      </c>
-      <c r="D161" t="s">
-        <v>228</v>
-      </c>
-      <c r="G161" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A162" s="5"/>
-      <c r="B162" s="5">
-        <v>3001</v>
-      </c>
-      <c r="C162" s="5">
-        <v>5583</v>
-      </c>
-      <c r="D162" t="s">
-        <v>228</v>
-      </c>
-      <c r="G162" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A163" s="5"/>
-      <c r="B163" s="5">
-        <v>5309</v>
-      </c>
-      <c r="C163" s="5">
-        <v>5911</v>
-      </c>
-      <c r="D163" t="s">
-        <v>228</v>
-      </c>
-      <c r="G163" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A164" s="5"/>
-      <c r="B164" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D164" t="s">
-        <v>228</v>
-      </c>
-      <c r="G164" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A165" s="5"/>
-      <c r="B165" s="5">
-        <v>5309</v>
-      </c>
-      <c r="C165" s="5">
-        <v>5580</v>
-      </c>
-      <c r="D165" t="s">
-        <v>228</v>
-      </c>
-      <c r="G165" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A166" s="5"/>
-      <c r="B166" s="5">
-        <v>2017</v>
-      </c>
-      <c r="C166" s="5">
-        <v>5859</v>
-      </c>
-      <c r="D166" t="s">
-        <v>228</v>
-      </c>
-      <c r="G166" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A167" s="5"/>
-      <c r="B167" s="5">
-        <v>5309</v>
-      </c>
-      <c r="C167" s="5">
-        <v>5865</v>
-      </c>
-      <c r="D167" t="s">
-        <v>228</v>
-      </c>
-      <c r="G167" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A168" s="5"/>
-      <c r="B168" s="5">
-        <v>3002</v>
-      </c>
-      <c r="C168" s="5">
-        <v>5817</v>
-      </c>
-      <c r="D168" t="s">
-        <v>228</v>
-      </c>
-      <c r="G168" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A169" s="5"/>
-      <c r="B169" s="5">
-        <v>5309</v>
-      </c>
-      <c r="C169" s="5">
-        <v>5861</v>
-      </c>
-      <c r="D169" t="s">
-        <v>228</v>
-      </c>
-      <c r="G169" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A170" s="5"/>
-      <c r="B170" s="5">
-        <v>5309</v>
-      </c>
-      <c r="C170" s="5">
-        <v>5595</v>
-      </c>
-      <c r="D170" t="s">
-        <v>228</v>
-      </c>
-      <c r="G170" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A171" s="5"/>
-      <c r="B171" s="5">
-        <v>5309</v>
-      </c>
-      <c r="C171" s="5">
-        <v>5568</v>
-      </c>
-      <c r="D171" t="s">
-        <v>228</v>
-      </c>
-      <c r="G171" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A172" s="5"/>
-      <c r="B172" s="5">
-        <v>3001</v>
-      </c>
-      <c r="C172" s="5">
-        <v>5829</v>
-      </c>
-      <c r="D172" t="s">
-        <v>228</v>
-      </c>
-      <c r="G172" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A173" s="5"/>
-      <c r="B173" s="5">
-        <v>3001</v>
-      </c>
-      <c r="C173" s="5">
-        <v>5829</v>
-      </c>
-      <c r="D173" t="s">
-        <v>228</v>
-      </c>
-      <c r="G173" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A174" s="5"/>
-      <c r="B174" s="5">
-        <v>3002</v>
-      </c>
-      <c r="C174" s="5">
-        <v>5817</v>
-      </c>
-      <c r="D174" t="s">
-        <v>228</v>
-      </c>
-      <c r="G174" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A175" s="5"/>
-      <c r="B175" s="5">
-        <v>5309</v>
-      </c>
-      <c r="C175" s="5">
-        <v>5907</v>
-      </c>
-      <c r="D175" t="s">
-        <v>228</v>
-      </c>
-      <c r="G175" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A176" s="5"/>
-      <c r="B176" s="5">
-        <v>4336</v>
-      </c>
-      <c r="C176" s="5">
-        <v>5571</v>
-      </c>
-      <c r="D176" t="s">
-        <v>228</v>
-      </c>
-      <c r="G176" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A177" s="5"/>
-      <c r="B177" s="5">
-        <v>5309</v>
-      </c>
-      <c r="C177" s="5">
-        <v>7540</v>
-      </c>
-      <c r="D177" t="s">
-        <v>228</v>
-      </c>
-      <c r="G177" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A178" s="5"/>
-      <c r="B178" s="5">
-        <v>3007</v>
-      </c>
-      <c r="C178" s="5">
-        <v>5571</v>
-      </c>
-      <c r="D178" t="s">
-        <v>228</v>
-      </c>
-      <c r="G178" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A179" s="5"/>
-      <c r="B179" s="5">
-        <v>2315</v>
-      </c>
-      <c r="C179" s="5">
-        <v>5856</v>
-      </c>
-      <c r="D179" t="s">
-        <v>228</v>
-      </c>
-      <c r="G179" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A180" s="5"/>
-      <c r="B180" s="5">
-        <v>3001</v>
-      </c>
-      <c r="C180" s="5">
-        <v>5578</v>
-      </c>
-      <c r="D180" t="s">
-        <v>228</v>
-      </c>
-      <c r="G180" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A181" s="5"/>
-      <c r="B181" s="5">
-        <v>4336</v>
-      </c>
-      <c r="C181" s="5">
-        <v>5571</v>
-      </c>
-      <c r="D181" t="s">
-        <v>228</v>
-      </c>
-      <c r="G181" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A182" s="5"/>
-      <c r="B182" s="5">
-        <v>3001</v>
-      </c>
-      <c r="C182" s="5">
-        <v>5383</v>
-      </c>
-      <c r="D182" t="s">
-        <v>228</v>
-      </c>
-      <c r="G182" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A183" s="5"/>
-      <c r="B183" s="5">
-        <v>5309</v>
-      </c>
-      <c r="C183" s="5">
-        <v>5860</v>
-      </c>
-      <c r="D183" t="s">
-        <v>228</v>
-      </c>
-      <c r="G183" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A184" s="5"/>
-      <c r="B184" s="5">
-        <v>3310</v>
-      </c>
-      <c r="C184" s="5">
-        <v>5854</v>
-      </c>
-      <c r="D184" t="s">
-        <v>228</v>
-      </c>
-      <c r="G184" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A185" s="5"/>
-      <c r="B185" s="5">
-        <v>3001</v>
-      </c>
-      <c r="C185" s="5">
-        <v>5577</v>
-      </c>
-      <c r="D185" t="s">
-        <v>228</v>
-      </c>
-      <c r="G185" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A186" s="5"/>
-      <c r="B186" s="5">
-        <v>5309</v>
-      </c>
-      <c r="C186" s="5">
-        <v>5853</v>
-      </c>
-      <c r="D186" t="s">
-        <v>228</v>
-      </c>
-      <c r="G186" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A187" s="5"/>
-      <c r="B187" s="5">
-        <v>2017</v>
-      </c>
-      <c r="C187" s="5">
-        <v>5859</v>
-      </c>
-      <c r="D187" t="s">
-        <v>228</v>
-      </c>
-      <c r="G187" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A188" s="5"/>
-      <c r="B188" s="5">
-        <v>5311</v>
-      </c>
-      <c r="C188" s="5">
-        <v>5841</v>
-      </c>
-      <c r="D188" t="s">
-        <v>228</v>
-      </c>
-      <c r="G188" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A189" s="5"/>
-      <c r="B189" s="5">
-        <v>5309</v>
-      </c>
-      <c r="C189" s="5">
-        <v>5831</v>
-      </c>
-      <c r="D189" t="s">
-        <v>228</v>
-      </c>
-      <c r="G189" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A190" s="5"/>
-      <c r="B190" s="5">
-        <v>2017</v>
-      </c>
-      <c r="C190" s="5">
-        <v>5859</v>
-      </c>
-      <c r="D190" t="s">
-        <v>228</v>
-      </c>
-      <c r="G190" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A191" s="5"/>
-      <c r="B191" s="5">
-        <v>5309</v>
-      </c>
-      <c r="C191" s="5">
-        <v>5838</v>
-      </c>
-      <c r="D191" t="s">
-        <v>228</v>
-      </c>
-      <c r="G191" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A192" s="5"/>
-      <c r="B192" s="5">
-        <v>108</v>
-      </c>
-      <c r="C192" s="5">
-        <v>5733</v>
-      </c>
-      <c r="D192" t="s">
-        <v>229</v>
-      </c>
-      <c r="F192" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A193" s="5"/>
-      <c r="B193" s="5">
-        <v>4003</v>
-      </c>
-      <c r="C193" s="5">
-        <v>5970</v>
-      </c>
-      <c r="D193" t="s">
-        <v>229</v>
-      </c>
-      <c r="F193" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A194" s="5"/>
-      <c r="B194" s="5">
-        <v>4054</v>
-      </c>
-      <c r="C194" s="5">
-        <v>5900</v>
-      </c>
-      <c r="D194" t="s">
-        <v>229</v>
-      </c>
-      <c r="F194" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A195" s="5"/>
-      <c r="B195" s="5">
-        <v>4114</v>
-      </c>
-      <c r="C195" s="5">
-        <v>5620</v>
-      </c>
-      <c r="D195" t="s">
-        <v>229</v>
-      </c>
-      <c r="F195" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A196" s="5"/>
-      <c r="B196" s="5">
-        <v>2017</v>
-      </c>
-      <c r="C196" s="5">
-        <v>5859</v>
-      </c>
-      <c r="D196" t="s">
-        <v>133</v>
-      </c>
-      <c r="F196" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A197" s="5"/>
-      <c r="B197" s="5">
-        <v>3001</v>
-      </c>
-      <c r="C197" s="5">
-        <v>5570</v>
-      </c>
-      <c r="D197" t="s">
-        <v>133</v>
-      </c>
-      <c r="F197" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A198" s="5"/>
-      <c r="B198" s="5">
-        <v>5308</v>
-      </c>
-      <c r="C198" s="5">
-        <v>5830</v>
-      </c>
-      <c r="D198" t="s">
-        <v>133</v>
-      </c>
-      <c r="F198" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A199" s="5"/>
-      <c r="B199" s="5">
-        <v>5309</v>
-      </c>
-      <c r="C199" s="5">
-        <v>5860</v>
-      </c>
-      <c r="D199" t="s">
-        <v>133</v>
-      </c>
-      <c r="F199" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A200" s="5"/>
-      <c r="B200" s="5">
-        <v>5309</v>
-      </c>
-      <c r="C200" s="5">
-        <v>5861</v>
-      </c>
-      <c r="D200" t="s">
-        <v>133</v>
-      </c>
-      <c r="F200" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A201" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B201" s="5">
-        <v>3303</v>
-      </c>
-      <c r="C201" s="5"/>
-      <c r="F201" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A202" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B202" s="5">
-        <v>3304</v>
-      </c>
-      <c r="C202" s="5"/>
-      <c r="F202" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A203" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B203" s="5">
-        <v>3305</v>
-      </c>
-      <c r="C203" s="5"/>
-      <c r="F203" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A204" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B204" s="5">
-        <v>3306</v>
-      </c>
-      <c r="C204" s="5"/>
-      <c r="F204" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A205" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B205" s="5">
-        <v>3307</v>
-      </c>
-      <c r="C205" s="5"/>
-      <c r="F205" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A206" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B206" s="5">
-        <v>3308</v>
-      </c>
-      <c r="C206" s="5"/>
-      <c r="F206" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A207" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B207" s="5">
-        <v>4301</v>
-      </c>
-      <c r="C207" s="5"/>
-      <c r="F207" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A208" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B208" s="5">
-        <v>4305</v>
-      </c>
-      <c r="C208" s="5"/>
-      <c r="F208" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A209" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B209" s="5">
-        <v>4306</v>
-      </c>
-      <c r="C209" s="5"/>
-      <c r="F209" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A210" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B210" s="5">
-        <v>4307</v>
-      </c>
-      <c r="C210" s="5"/>
-      <c r="F210" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A211" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B211" s="5">
-        <v>4308</v>
-      </c>
-      <c r="C211" s="5"/>
-      <c r="F211" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A212" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B212" s="5">
-        <v>4309</v>
-      </c>
-      <c r="C212" s="5"/>
-      <c r="F212" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3"/>
+    <row r="213" spans="2:8" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5523,7 +5684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9B8915-CBA7-4C44-8AD2-2299416E9070}">
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
